--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF83C5-8FCB-4515-A574-374D69577A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172DBC79-1D68-4EED-9846-2C9B655C7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,24 @@
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="533">
   <si>
     <t>Name</t>
   </si>
@@ -1566,6 +1578,63 @@
   </si>
   <si>
     <t>DOL Federal Administrator</t>
+  </si>
+  <si>
+    <t>Budget Level</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>Fund Value</t>
+  </si>
+  <si>
+    <t>From Distribution</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Sub Type</t>
+  </si>
+  <si>
+    <t>Increase/Decrease</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>ColName_Number</t>
+  </si>
+  <si>
+    <t>ColName_Increase/Decrease</t>
+  </si>
+  <si>
+    <t>ColName_BudgetLevel</t>
+  </si>
+  <si>
+    <t>ColName_TransactionDate</t>
+  </si>
+  <si>
+    <t>ColName_FundValue</t>
+  </si>
+  <si>
+    <t>ColName_FromDistribution</t>
+  </si>
+  <si>
+    <t>ColName_Managingunit</t>
+  </si>
+  <si>
+    <t>ColName_TransactionType</t>
+  </si>
+  <si>
+    <t>ColName_SubType</t>
+  </si>
+  <si>
+    <t>ColName_TransactionAmount</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1650,6 +1719,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1966,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4524,94 +4594,229 @@
       <c r="B331" s="7"/>
     </row>
     <row r="332" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="B332" s="7"/>
-    </row>
-    <row r="333" spans="1:2" s="6" customFormat="1" ht="14.5"/>
+      <c r="A332" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" s="6" customFormat="1" ht="14.5">
+      <c r="A333" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
     <row r="334" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="B334" s="7"/>
+      <c r="A334" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="335" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="B335" s="7"/>
+      <c r="A335" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="336" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="B336" s="7"/>
-    </row>
-    <row r="337" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="338" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A338" s="6"/>
-      <c r="B338" s="7"/>
-      <c r="C338" s="6"/>
-    </row>
-    <row r="339" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A339" s="6"/>
-      <c r="B339" s="8"/>
-      <c r="C339" s="6"/>
-    </row>
-    <row r="340" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A340" s="6"/>
-      <c r="B340" s="7"/>
-      <c r="C340" s="6"/>
-    </row>
-    <row r="341" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A341" s="6"/>
-      <c r="B341" s="6"/>
-      <c r="C341" s="6"/>
-    </row>
-    <row r="342" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A342" s="6"/>
-      <c r="B342" s="5"/>
-      <c r="C342" s="6"/>
-    </row>
-    <row r="343" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A343" s="6"/>
-      <c r="B343" s="7"/>
-      <c r="C343" s="6"/>
-    </row>
-    <row r="344" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A344" s="6"/>
-      <c r="B344" s="8"/>
-      <c r="C344" s="6"/>
-    </row>
-    <row r="345" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A345" s="6"/>
-      <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
-    </row>
-    <row r="346" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A346" s="6"/>
-      <c r="B346" s="7"/>
-      <c r="C346" s="6"/>
-    </row>
-    <row r="347" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="348" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B348" s="5"/>
-    </row>
-    <row r="349" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B349" s="7"/>
-    </row>
-    <row r="350" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B350" s="8"/>
-    </row>
-    <row r="351" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="352" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A352" s="6"/>
-    </row>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
+      <c r="A336" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A337" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D337" s="6"/>
+    </row>
+    <row r="338" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A338" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D338" s="6"/>
+    </row>
+    <row r="339" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A339" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D339" s="6"/>
+    </row>
+    <row r="340" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A340" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D340" s="6"/>
+    </row>
+    <row r="341" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A341" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D341" s="6"/>
+    </row>
+    <row r="342" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A342" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D342" s="6"/>
+    </row>
+    <row r="343" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A343" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D343" s="6"/>
+    </row>
+    <row r="344" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A344" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D344" s="6"/>
+    </row>
+    <row r="345" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A345" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D345" s="6"/>
+    </row>
+    <row r="346" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A346" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D346" s="6"/>
+    </row>
+    <row r="347" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A347" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D347" s="6"/>
+    </row>
+    <row r="348" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A348" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D348" s="6"/>
+    </row>
+    <row r="349" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A349" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D349" s="6"/>
+    </row>
+    <row r="350" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A350" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D350" s="6"/>
+    </row>
+    <row r="351" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A351" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D351" s="6"/>
+    </row>
+    <row r="352" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A352" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D352" s="6"/>
+    </row>
+    <row r="353" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A353" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D353" s="6"/>
+    </row>
+    <row r="354" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A354" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D354" s="6"/>
+    </row>
+    <row r="355" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A355" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D355" s="6"/>
+    </row>
+    <row r="356" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="357" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="358" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="359" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="360" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="361" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="362" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="363" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="364" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="365" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="366" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="367" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="368" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="369" ht="14.25" customHeight="1"/>
     <row r="370" ht="14.25" customHeight="1"/>
     <row r="371" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172DBC79-1D68-4EED-9846-2C9B655C7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7DC865-37E6-4550-9AA0-149EC77E1DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,9 +602,6 @@
     <t>TimeOut_ValidationFailureDisplayed</t>
   </si>
   <si>
-    <t>Invoice Transactions Process - User Input Form</t>
-  </si>
-  <si>
     <t>ColName_Source</t>
   </si>
   <si>
@@ -1635,6 +1632,9 @@
   </si>
   <si>
     <t>ColName_TransactionAmount</t>
+  </si>
+  <si>
+    <t>Fund Distributions Process - User Input Form</t>
   </si>
 </sst>
 </file>
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="B355" sqref="B355"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2092,7 +2092,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -2154,10 +2154,10 @@
     </row>
     <row r="12" spans="1:26" ht="14.5">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
@@ -2188,279 +2188,279 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.5">
       <c r="A24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.5">
       <c r="A25" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.5">
       <c r="A26" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.5">
       <c r="A27" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.5">
       <c r="A28" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.5">
       <c r="A29" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.5">
       <c r="A30" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.5">
       <c r="A31" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.5">
       <c r="A32" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.5">
       <c r="A33" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.5">
       <c r="A34" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.5">
       <c r="A35" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.5">
       <c r="A36" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.5">
       <c r="A37" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.5">
       <c r="A38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.5">
       <c r="A39" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.5">
       <c r="A40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.5">
       <c r="A41" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.5">
       <c r="A42" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.5">
       <c r="A43" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.5">
       <c r="A44" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.5">
       <c r="A45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.5">
       <c r="A46" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.5">
       <c r="A47" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.5">
       <c r="A48" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.5">
       <c r="A49" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.5">
       <c r="A50" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>3</v>
@@ -2468,135 +2468,135 @@
     </row>
     <row r="51" spans="1:2" ht="14.5">
       <c r="A51" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.5">
       <c r="A52" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.5">
       <c r="A53" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.5">
       <c r="A54" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.5">
       <c r="A55" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.5">
       <c r="A56" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.5">
       <c r="A57" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.5">
       <c r="A58" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.5">
       <c r="A59" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.5">
       <c r="A60" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.5">
       <c r="A61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.5">
       <c r="A62" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.5">
       <c r="A63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.5">
       <c r="A64" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.5">
       <c r="A65" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.5">
       <c r="A66" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.5">
       <c r="A67" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
@@ -2604,290 +2604,290 @@
     </row>
     <row r="68" spans="1:2" ht="14.5">
       <c r="A68" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.5">
       <c r="A69" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.5">
       <c r="A70" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.5">
       <c r="A71" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.5">
       <c r="A72" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.5">
       <c r="A73" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.5">
       <c r="A74" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.5">
       <c r="A75" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.5">
       <c r="A76" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.5">
       <c r="A77" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.5">
       <c r="A78" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.5">
       <c r="A79" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.5">
       <c r="A80" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.5">
       <c r="A81" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.5">
       <c r="A82" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.5">
       <c r="A83" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.5">
       <c r="A84" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.5">
       <c r="A85" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.5">
       <c r="A86" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.5">
       <c r="A87" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.5">
       <c r="A88" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.5">
       <c r="A89" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1">
       <c r="A90" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.5">
       <c r="A91" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.5">
       <c r="A92" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.5">
       <c r="A93" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.5">
       <c r="A94" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.5">
       <c r="A95" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.5">
       <c r="A96" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.5">
       <c r="A97" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.5">
       <c r="A98" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.5">
       <c r="A99" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.5">
       <c r="A100" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.5">
       <c r="A101" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.5">
       <c r="A102" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.5">
       <c r="A103" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.5">
@@ -2896,18 +2896,18 @@
     </row>
     <row r="106" spans="1:2" ht="14.5">
       <c r="A106" t="s">
+        <v>330</v>
+      </c>
+      <c r="B106" t="s">
         <v>331</v>
-      </c>
-      <c r="B106" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.5">
@@ -2965,7 +2965,7 @@
         <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.25" customHeight="1">
@@ -2973,13 +2973,13 @@
         <v>66</v>
       </c>
       <c r="B117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="119" spans="1:2" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" customHeight="1">
@@ -3032,50 +3032,50 @@
     </row>
     <row r="130" spans="1:2" ht="14.5">
       <c r="A130" t="s">
+        <v>388</v>
+      </c>
+      <c r="B130" t="s">
         <v>389</v>
-      </c>
-      <c r="B130" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.5">
       <c r="A131" t="s">
+        <v>392</v>
+      </c>
+      <c r="B131" t="s">
         <v>393</v>
-      </c>
-      <c r="B131" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.5">
       <c r="A132" t="s">
+        <v>390</v>
+      </c>
+      <c r="B132" t="s">
         <v>391</v>
-      </c>
-      <c r="B132" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.5">
       <c r="A133" t="s">
+        <v>396</v>
+      </c>
+      <c r="B133" t="s">
         <v>397</v>
-      </c>
-      <c r="B133" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.5">
       <c r="A134" t="s">
+        <v>398</v>
+      </c>
+      <c r="B134" t="s">
         <v>399</v>
-      </c>
-      <c r="B134" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.5">
       <c r="A135" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" t="s">
         <v>401</v>
-      </c>
-      <c r="B135" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.5">
@@ -3096,7 +3096,7 @@
     </row>
     <row r="138" spans="1:2" ht="14.5">
       <c r="A138" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B138" t="s">
         <v>93</v>
@@ -3112,18 +3112,18 @@
     </row>
     <row r="140" spans="1:2" s="9" customFormat="1" ht="14.5">
       <c r="A140" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B140" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="141" spans="1:2" s="9" customFormat="1" ht="14.5">
       <c r="A141" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B141" s="14" t="s">
         <v>509</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="142" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
@@ -3144,98 +3144,98 @@
     </row>
     <row r="144" spans="1:2" ht="14.25" customHeight="1">
       <c r="A144" t="s">
+        <v>403</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14.25" customHeight="1">
       <c r="A145" t="s">
+        <v>405</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.5">
       <c r="A146" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.5">
       <c r="A147" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.5">
       <c r="A148" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14.5">
       <c r="A149" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.5">
       <c r="A150" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.5">
       <c r="A151" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.5">
       <c r="A152" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.5">
       <c r="A153" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14.5">
       <c r="A154" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.5">
       <c r="A155" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.5">
@@ -3304,10 +3304,10 @@
     </row>
     <row r="165" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A165" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B165" s="14" t="s">
         <v>511</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1">
@@ -3427,7 +3427,7 @@
     <row r="182" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="183" spans="1:3" ht="14.25" customHeight="1">
       <c r="A183" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B183">
         <v>5</v>
@@ -3576,7 +3576,7 @@
         <v>120</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1">
@@ -3643,7 +3643,7 @@
     <row r="209" spans="1:3" ht="20.5" customHeight="1"/>
     <row r="210" spans="1:3" ht="20.5" customHeight="1">
       <c r="A210" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B210">
         <v>5</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="211" spans="1:3" ht="14.5" customHeight="1">
       <c r="A211" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B211">
         <v>5</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="212" spans="1:3" ht="14.5" customHeight="1">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="213" spans="1:3" ht="14.5" customHeight="1">
       <c r="A213" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B213">
         <v>5</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="214" spans="1:3" ht="14.5" customHeight="1">
       <c r="A214" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B214">
         <v>5</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="215" spans="1:3" ht="14.5" customHeight="1">
       <c r="A215" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B215">
         <v>5</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="216" spans="1:3" ht="14.5" customHeight="1">
       <c r="A216" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B216">
         <v>5</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="217" spans="1:3" ht="14.5" customHeight="1">
       <c r="A217" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B217">
         <v>5</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="218" spans="1:3" ht="14.5" customHeight="1">
       <c r="A218" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B218">
         <v>5</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="219" spans="1:3" ht="14.5" customHeight="1">
       <c r="A219" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B219">
         <v>5</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="220" spans="1:3" ht="14.5" customHeight="1">
       <c r="A220" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B220">
         <v>5</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="221" spans="1:3" ht="14.5" customHeight="1">
       <c r="A221" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B221">
         <v>5</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="222" spans="1:3" ht="14.5" customHeight="1">
       <c r="A222" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B222">
         <v>5</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="223" spans="1:3" ht="14.5" customHeight="1">
       <c r="A223" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="224" spans="1:3" ht="14.5" customHeight="1">
       <c r="A224" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="225" spans="1:3" ht="14.5" customHeight="1">
       <c r="A225" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B225">
         <v>5</v>
@@ -3820,210 +3820,210 @@
     <row r="226" spans="1:3" ht="14.5" customHeight="1"/>
     <row r="227" spans="1:3" ht="15.5" customHeight="1">
       <c r="A227" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B227" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.5" customHeight="1">
       <c r="A228" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B228" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16" customHeight="1">
       <c r="A229" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B229" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.5" customHeight="1">
       <c r="A230" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B230" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.5" customHeight="1">
       <c r="A231" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B231" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.5" customHeight="1">
       <c r="A232" t="s">
+        <v>421</v>
+      </c>
+      <c r="B232" t="s">
         <v>422</v>
-      </c>
-      <c r="B232" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.5" customHeight="1">
       <c r="A233" t="s">
+        <v>428</v>
+      </c>
+      <c r="B233" t="s">
         <v>429</v>
-      </c>
-      <c r="B233" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.5" customHeight="1">
       <c r="A234" t="s">
+        <v>430</v>
+      </c>
+      <c r="B234" t="s">
         <v>431</v>
-      </c>
-      <c r="B234" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.5" customHeight="1">
       <c r="A235" t="s">
+        <v>432</v>
+      </c>
+      <c r="B235" t="s">
         <v>433</v>
-      </c>
-      <c r="B235" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.5" customHeight="1">
       <c r="A236" t="s">
+        <v>435</v>
+      </c>
+      <c r="B236" t="s">
         <v>436</v>
-      </c>
-      <c r="B236" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.5" customHeight="1">
       <c r="A237" t="s">
+        <v>437</v>
+      </c>
+      <c r="B237" t="s">
         <v>438</v>
-      </c>
-      <c r="B237" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.5" customHeight="1">
       <c r="A238" t="s">
+        <v>439</v>
+      </c>
+      <c r="B238" t="s">
         <v>440</v>
-      </c>
-      <c r="B238" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.5" customHeight="1">
       <c r="A239" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B239" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.5" customHeight="1">
       <c r="A240" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B240" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" customHeight="1">
       <c r="A241" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B241" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13.5" customHeight="1">
       <c r="A242" t="s">
+        <v>445</v>
+      </c>
+      <c r="B242" t="s">
         <v>446</v>
-      </c>
-      <c r="B242" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13" customHeight="1">
       <c r="A243" t="s">
+        <v>451</v>
+      </c>
+      <c r="B243" t="s">
         <v>452</v>
-      </c>
-      <c r="B243" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="17" customHeight="1">
       <c r="A244" t="s">
+        <v>454</v>
+      </c>
+      <c r="B244" t="s">
         <v>455</v>
-      </c>
-      <c r="B244" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="17" customHeight="1">
       <c r="A245" t="s">
+        <v>459</v>
+      </c>
+      <c r="B245" t="s">
         <v>460</v>
-      </c>
-      <c r="B245" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17" customHeight="1">
       <c r="A246" t="s">
+        <v>461</v>
+      </c>
+      <c r="B246" t="s">
         <v>462</v>
-      </c>
-      <c r="B246" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="17" customHeight="1">
       <c r="A247" t="s">
+        <v>465</v>
+      </c>
+      <c r="B247" t="s">
         <v>466</v>
-      </c>
-      <c r="B247" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="17" customHeight="1">
       <c r="A248" t="s">
+        <v>467</v>
+      </c>
+      <c r="B248" t="s">
         <v>468</v>
-      </c>
-      <c r="B248" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="17" customHeight="1">
       <c r="A249" t="s">
+        <v>469</v>
+      </c>
+      <c r="B249" t="s">
         <v>470</v>
-      </c>
-      <c r="B249" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="17" customHeight="1">
       <c r="A250" t="s">
+        <v>473</v>
+      </c>
+      <c r="B250" t="s">
         <v>474</v>
-      </c>
-      <c r="B250" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="17" customHeight="1">
       <c r="A251" t="s">
+        <v>476</v>
+      </c>
+      <c r="B251" t="s">
         <v>477</v>
-      </c>
-      <c r="B251" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="17" customHeight="1">
       <c r="A252" t="s">
+        <v>478</v>
+      </c>
+      <c r="B252" t="s">
         <v>479</v>
-      </c>
-      <c r="B252" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="17" customHeight="1"/>
@@ -4150,7 +4150,7 @@
         <v>135</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C273" s="6"/>
     </row>
@@ -4159,7 +4159,7 @@
         <v>136</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C274" s="6"/>
     </row>
@@ -4200,7 +4200,7 @@
         <v>138</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.25" customHeight="1">
@@ -4240,18 +4240,18 @@
     <row r="286" spans="1:3" ht="14" customHeight="1"/>
     <row r="287" spans="1:3" ht="15" customHeight="1">
       <c r="A287" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B287">
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="14" customHeight="1">
       <c r="A288" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -4262,18 +4262,18 @@
     </row>
     <row r="289" spans="1:3" ht="14" customHeight="1">
       <c r="A289" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B289">
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="14" customHeight="1">
       <c r="A290" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -4323,10 +4323,10 @@
     <row r="297" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="298" spans="1:3" ht="14.25" customHeight="1">
       <c r="A298" t="s">
+        <v>394</v>
+      </c>
+      <c r="B298" t="s">
         <v>395</v>
-      </c>
-      <c r="B298" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="14.25" customHeight="1">
@@ -4355,18 +4355,18 @@
     </row>
     <row r="302" spans="1:3" ht="14.25" customHeight="1">
       <c r="A302" t="s">
+        <v>270</v>
+      </c>
+      <c r="B302" t="s">
         <v>271</v>
-      </c>
-      <c r="B302" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="14.25" customHeight="1">
       <c r="A303" t="s">
+        <v>503</v>
+      </c>
+      <c r="B303" t="s">
         <v>504</v>
-      </c>
-      <c r="B303" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="14.25" customHeight="1"/>
@@ -4393,7 +4393,7 @@
     <row r="308" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="309" spans="1:3" ht="14.25" customHeight="1">
       <c r="A309" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B309">
         <v>5</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="311" spans="1:3" ht="14" customHeight="1">
       <c r="A311" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B311">
         <v>5</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="312" spans="1:3" ht="14.25" customHeight="1">
       <c r="A312" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B312">
         <v>5</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="313" spans="1:3" ht="14.25" customHeight="1">
       <c r="A313" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B313">
         <v>5</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="314" spans="1:3" ht="14.25" customHeight="1">
       <c r="A314" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B314">
         <v>5</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="315" spans="1:3" ht="14.25" customHeight="1">
       <c r="A315" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B315">
         <v>5</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="316" spans="1:3" ht="14.25" customHeight="1">
       <c r="A316" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B316">
         <v>5</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="317" spans="1:3" ht="14.25" customHeight="1">
       <c r="A317" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B317">
         <v>5</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="318" spans="1:3" ht="14.25" customHeight="1">
       <c r="A318" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B318">
         <v>5</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="319" spans="1:3" ht="14.25" customHeight="1">
       <c r="A319" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B319">
         <v>5</v>
@@ -4515,79 +4515,79 @@
     <row r="320" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="321" spans="1:2" ht="14.25" customHeight="1">
       <c r="A321" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="14.25" customHeight="1">
       <c r="A322" t="s">
+        <v>334</v>
+      </c>
+      <c r="B322" t="s">
         <v>335</v>
-      </c>
-      <c r="B322" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="14.25" customHeight="1">
       <c r="A323" t="s">
+        <v>338</v>
+      </c>
+      <c r="B323" t="s">
         <v>339</v>
-      </c>
-      <c r="B323" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="14.25" customHeight="1">
       <c r="A324" t="s">
+        <v>341</v>
+      </c>
+      <c r="B324" t="s">
         <v>342</v>
-      </c>
-      <c r="B324" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="14.25" customHeight="1">
       <c r="A325" t="s">
+        <v>344</v>
+      </c>
+      <c r="B325" t="s">
         <v>345</v>
-      </c>
-      <c r="B325" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="14.25" customHeight="1">
       <c r="A326" t="s">
+        <v>347</v>
+      </c>
+      <c r="B326" t="s">
         <v>348</v>
-      </c>
-      <c r="B326" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="14.25" customHeight="1">
       <c r="A327" t="s">
+        <v>350</v>
+      </c>
+      <c r="B327" t="s">
         <v>351</v>
-      </c>
-      <c r="B327" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="14.25" customHeight="1">
       <c r="A328" t="s">
+        <v>353</v>
+      </c>
+      <c r="B328" t="s">
         <v>354</v>
-      </c>
-      <c r="B328" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="329" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A329" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="330" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A330" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B330" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="B330" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="331" spans="1:2" s="6" customFormat="1" ht="14.5">
@@ -4595,212 +4595,212 @@
     </row>
     <row r="332" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A332" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="333" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A333" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="334" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A334" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="335" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A335" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="336" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A336" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="14.25" customHeight="1">
       <c r="A337" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D337" s="6"/>
     </row>
     <row r="338" spans="1:4" ht="14.25" customHeight="1">
       <c r="A338" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B338" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="D338" s="6"/>
     </row>
     <row r="339" spans="1:4" ht="14.25" customHeight="1">
       <c r="A339" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D339" s="6"/>
     </row>
     <row r="340" spans="1:4" ht="14.25" customHeight="1">
       <c r="A340" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D340" s="6"/>
     </row>
     <row r="341" spans="1:4" ht="14.25" customHeight="1">
       <c r="A341" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D341" s="6"/>
     </row>
     <row r="342" spans="1:4" ht="14.25" customHeight="1">
       <c r="A342" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D342" s="6"/>
     </row>
     <row r="343" spans="1:4" ht="14.25" customHeight="1">
       <c r="A343" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D343" s="6"/>
     </row>
     <row r="344" spans="1:4" ht="14.25" customHeight="1">
       <c r="A344" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D344" s="6"/>
     </row>
     <row r="345" spans="1:4" ht="14.25" customHeight="1">
       <c r="A345" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D345" s="6"/>
     </row>
     <row r="346" spans="1:4" ht="14.25" customHeight="1">
       <c r="A346" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D346" s="6"/>
     </row>
     <row r="347" spans="1:4" ht="14.25" customHeight="1">
       <c r="A347" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4" ht="14.25" customHeight="1">
       <c r="A348" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D348" s="6"/>
     </row>
     <row r="349" spans="1:4" ht="14.25" customHeight="1">
       <c r="A349" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D349" s="6"/>
     </row>
     <row r="350" spans="1:4" ht="14.25" customHeight="1">
       <c r="A350" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D350" s="6"/>
     </row>
     <row r="351" spans="1:4" ht="14.25" customHeight="1">
       <c r="A351" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D351" s="6"/>
     </row>
     <row r="352" spans="1:4" ht="14.25" customHeight="1">
       <c r="A352" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D352" s="6"/>
     </row>
     <row r="353" spans="1:4" ht="14.25" customHeight="1">
       <c r="A353" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D353" s="6"/>
     </row>
     <row r="354" spans="1:4" ht="14.25" customHeight="1">
       <c r="A354" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D354" s="6"/>
     </row>
     <row r="355" spans="1:4" ht="14.25" customHeight="1">
       <c r="A355" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D355" s="6"/>
     </row>
@@ -5856,7 +5856,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7DC865-37E6-4550-9AA0-149EC77E1DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23CD7DC-200E-4461-8C07-BCE79694B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,12 +1022,6 @@
     <t>BotComments_SE</t>
   </si>
   <si>
-    <t>Invoice Transactions - Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attached is the bot generated Invoice Transactions Report. </t>
-  </si>
-  <si>
     <t>BotStatus_Date_InvalidDateFormat</t>
   </si>
   <si>
@@ -1532,9 +1526,6 @@
     <t>RetryInterval_GLAccountError_F4Key</t>
   </si>
   <si>
-    <t>Invoice Transactions - Error Occurred</t>
-  </si>
-  <si>
     <t>RetryNum_FiscalYearError</t>
   </si>
   <si>
@@ -1635,6 +1626,15 @@
   </si>
   <si>
     <t>Fund Distributions Process - User Input Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attached is the bot generated Fund Distributions Report. </t>
+  </si>
+  <si>
+    <t>Fund Distributions - Error Occurred</t>
+  </si>
+  <si>
+    <t>Fund Distrubutions - Report</t>
   </si>
 </sst>
 </file>
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2092,7 +2092,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -2780,82 +2780,82 @@
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.5">
       <c r="A91" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.5">
       <c r="A92" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.5">
       <c r="A93" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.5">
       <c r="A94" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.5">
       <c r="A95" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.5">
       <c r="A96" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.5">
       <c r="A97" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.5">
       <c r="A98" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.5">
       <c r="A99" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.5">
@@ -2868,26 +2868,26 @@
     </row>
     <row r="101" spans="1:2" ht="14.5">
       <c r="A101" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.5">
       <c r="A102" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.5">
       <c r="A103" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.5">
@@ -2896,18 +2896,18 @@
     </row>
     <row r="106" spans="1:2" ht="14.5">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1">
       <c r="A107" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B107" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.5">
@@ -2973,7 +2973,7 @@
         <v>66</v>
       </c>
       <c r="B117" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3032,50 +3032,50 @@
     </row>
     <row r="130" spans="1:2" ht="14.5">
       <c r="A130" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.5">
       <c r="A131" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B131" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.5">
       <c r="A132" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B132" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.5">
       <c r="A133" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B133" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.5">
       <c r="A134" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.5">
       <c r="A135" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.5">
@@ -3096,7 +3096,7 @@
     </row>
     <row r="138" spans="1:2" ht="14.5">
       <c r="A138" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B138" t="s">
         <v>93</v>
@@ -3112,18 +3112,18 @@
     </row>
     <row r="140" spans="1:2" s="9" customFormat="1" ht="14.5">
       <c r="A140" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" spans="1:2" s="9" customFormat="1" ht="14.5">
       <c r="A141" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
@@ -3144,98 +3144,98 @@
     </row>
     <row r="144" spans="1:2" ht="14.25" customHeight="1">
       <c r="A144" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14.25" customHeight="1">
       <c r="A145" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.5">
       <c r="A146" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.5">
       <c r="A147" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.5">
       <c r="A148" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14.5">
       <c r="A149" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.5">
       <c r="A150" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.5">
       <c r="A151" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.5">
       <c r="A152" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.5">
       <c r="A153" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>488</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14.5">
       <c r="A154" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.5">
       <c r="A155" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.5">
@@ -3304,10 +3304,10 @@
     </row>
     <row r="165" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A165" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1">
@@ -3427,7 +3427,7 @@
     <row r="182" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="183" spans="1:3" ht="14.25" customHeight="1">
       <c r="A183" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B183">
         <v>5</v>
@@ -3576,7 +3576,7 @@
         <v>120</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1">
@@ -3643,7 +3643,7 @@
     <row r="209" spans="1:3" ht="20.5" customHeight="1"/>
     <row r="210" spans="1:3" ht="20.5" customHeight="1">
       <c r="A210" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B210">
         <v>5</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="211" spans="1:3" ht="14.5" customHeight="1">
       <c r="A211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B211">
         <v>5</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="212" spans="1:3" ht="14.5" customHeight="1">
       <c r="A212" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="213" spans="1:3" ht="14.5" customHeight="1">
       <c r="A213" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B213">
         <v>5</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="214" spans="1:3" ht="14.5" customHeight="1">
       <c r="A214" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B214">
         <v>5</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="215" spans="1:3" ht="14.5" customHeight="1">
       <c r="A215" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B215">
         <v>5</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="216" spans="1:3" ht="14.5" customHeight="1">
       <c r="A216" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B216">
         <v>5</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="217" spans="1:3" ht="14.5" customHeight="1">
       <c r="A217" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B217">
         <v>5</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="218" spans="1:3" ht="14.5" customHeight="1">
       <c r="A218" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B218">
         <v>5</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="219" spans="1:3" ht="14.5" customHeight="1">
       <c r="A219" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B219">
         <v>5</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="220" spans="1:3" ht="14.5" customHeight="1">
       <c r="A220" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B220">
         <v>5</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="221" spans="1:3" ht="14.5" customHeight="1">
       <c r="A221" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B221">
         <v>5</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="222" spans="1:3" ht="14.5" customHeight="1">
       <c r="A222" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B222">
         <v>5</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="223" spans="1:3" ht="14.5" customHeight="1">
       <c r="A223" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="224" spans="1:3" ht="14.5" customHeight="1">
       <c r="A224" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="225" spans="1:3" ht="14.5" customHeight="1">
       <c r="A225" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B225">
         <v>5</v>
@@ -3820,210 +3820,210 @@
     <row r="226" spans="1:3" ht="14.5" customHeight="1"/>
     <row r="227" spans="1:3" ht="15.5" customHeight="1">
       <c r="A227" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B227" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.5" customHeight="1">
       <c r="A228" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B228" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16" customHeight="1">
       <c r="A229" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B229" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.5" customHeight="1">
       <c r="A230" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B230" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.5" customHeight="1">
       <c r="A231" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B231" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.5" customHeight="1">
       <c r="A232" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B232" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.5" customHeight="1">
       <c r="A233" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B233" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.5" customHeight="1">
       <c r="A234" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B234" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.5" customHeight="1">
       <c r="A235" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B235" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.5" customHeight="1">
       <c r="A236" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B236" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.5" customHeight="1">
       <c r="A237" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B237" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.5" customHeight="1">
       <c r="A238" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B238" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.5" customHeight="1">
       <c r="A239" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B239" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.5" customHeight="1">
       <c r="A240" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B240" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" customHeight="1">
       <c r="A241" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B241" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13.5" customHeight="1">
       <c r="A242" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B242" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13" customHeight="1">
       <c r="A243" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B243" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="17" customHeight="1">
       <c r="A244" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B244" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="17" customHeight="1">
       <c r="A245" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B245" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17" customHeight="1">
       <c r="A246" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B246" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="17" customHeight="1">
       <c r="A247" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B247" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="17" customHeight="1">
       <c r="A248" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B248" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="17" customHeight="1">
       <c r="A249" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B249" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="17" customHeight="1">
       <c r="A250" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B250" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="17" customHeight="1">
       <c r="A251" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B251" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="17" customHeight="1">
       <c r="A252" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B252" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="17" customHeight="1"/>
@@ -4150,7 +4150,7 @@
         <v>135</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>328</v>
+        <v>532</v>
       </c>
       <c r="C273" s="6"/>
     </row>
@@ -4159,7 +4159,7 @@
         <v>136</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>329</v>
+        <v>530</v>
       </c>
       <c r="C274" s="6"/>
     </row>
@@ -4200,7 +4200,7 @@
         <v>138</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.25" customHeight="1">
@@ -4240,18 +4240,18 @@
     <row r="286" spans="1:3" ht="14" customHeight="1"/>
     <row r="287" spans="1:3" ht="15" customHeight="1">
       <c r="A287" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B287">
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="14" customHeight="1">
       <c r="A288" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -4262,18 +4262,18 @@
     </row>
     <row r="289" spans="1:3" ht="14" customHeight="1">
       <c r="A289" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B289">
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="14" customHeight="1">
       <c r="A290" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -4323,10 +4323,10 @@
     <row r="297" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="298" spans="1:3" ht="14.25" customHeight="1">
       <c r="A298" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B298" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="14.25" customHeight="1">
@@ -4363,10 +4363,10 @@
     </row>
     <row r="303" spans="1:3" ht="14.25" customHeight="1">
       <c r="A303" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B303" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="14.25" customHeight="1"/>
@@ -4393,7 +4393,7 @@
     <row r="308" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="309" spans="1:3" ht="14.25" customHeight="1">
       <c r="A309" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B309">
         <v>5</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="311" spans="1:3" ht="14" customHeight="1">
       <c r="A311" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B311">
         <v>5</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="312" spans="1:3" ht="14.25" customHeight="1">
       <c r="A312" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>5</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="313" spans="1:3" ht="14.25" customHeight="1">
       <c r="A313" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B313">
         <v>5</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="314" spans="1:3" ht="14.25" customHeight="1">
       <c r="A314" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B314">
         <v>5</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="315" spans="1:3" ht="14.25" customHeight="1">
       <c r="A315" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B315">
         <v>5</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="316" spans="1:3" ht="14.25" customHeight="1">
       <c r="A316" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B316">
         <v>5</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="317" spans="1:3" ht="14.25" customHeight="1">
       <c r="A317" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B317">
         <v>5</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="318" spans="1:3" ht="14.25" customHeight="1">
       <c r="A318" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B318">
         <v>5</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="319" spans="1:3" ht="14.25" customHeight="1">
       <c r="A319" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B319">
         <v>5</v>
@@ -4515,79 +4515,79 @@
     <row r="320" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="321" spans="1:2" ht="14.25" customHeight="1">
       <c r="A321" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="14.25" customHeight="1">
       <c r="A322" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B322" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="14.25" customHeight="1">
       <c r="A323" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B323" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="14.25" customHeight="1">
       <c r="A324" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B324" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="14.25" customHeight="1">
       <c r="A325" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B325" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="14.25" customHeight="1">
       <c r="A326" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B326" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="14.25" customHeight="1">
       <c r="A327" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B327" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="14.25" customHeight="1">
       <c r="A328" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B328" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="329" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A329" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="330" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A330" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="331" spans="1:2" s="6" customFormat="1" ht="14.5">
@@ -4595,42 +4595,42 @@
     </row>
     <row r="332" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A332" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="333" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A333" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="334" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A334" s="15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="335" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A335" s="15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="336" spans="1:2" s="6" customFormat="1" ht="14.5">
       <c r="A336" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="14.25" customHeight="1">
@@ -4644,91 +4644,91 @@
     </row>
     <row r="338" spans="1:4" ht="14.25" customHeight="1">
       <c r="A338" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D338" s="6"/>
     </row>
     <row r="339" spans="1:4" ht="14.25" customHeight="1">
       <c r="A339" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D339" s="6"/>
     </row>
     <row r="340" spans="1:4" ht="14.25" customHeight="1">
       <c r="A340" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D340" s="6"/>
     </row>
     <row r="341" spans="1:4" ht="14.25" customHeight="1">
       <c r="A341" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D341" s="6"/>
     </row>
     <row r="342" spans="1:4" ht="14.25" customHeight="1">
       <c r="A342" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D342" s="6"/>
     </row>
     <row r="343" spans="1:4" ht="14.25" customHeight="1">
       <c r="A343" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D343" s="6"/>
     </row>
     <row r="344" spans="1:4" ht="14.25" customHeight="1">
       <c r="A344" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D344" s="6"/>
     </row>
     <row r="345" spans="1:4" ht="14.25" customHeight="1">
       <c r="A345" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D345" s="6"/>
     </row>
     <row r="346" spans="1:4" ht="14.25" customHeight="1">
       <c r="A346" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D346" s="6"/>
     </row>
     <row r="347" spans="1:4" ht="14.25" customHeight="1">
       <c r="A347" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D347" s="6"/>
     </row>
@@ -4743,64 +4743,64 @@
     </row>
     <row r="349" spans="1:4" ht="14.25" customHeight="1">
       <c r="A349" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D349" s="6"/>
     </row>
     <row r="350" spans="1:4" ht="14.25" customHeight="1">
       <c r="A350" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D350" s="6"/>
     </row>
     <row r="351" spans="1:4" ht="14.25" customHeight="1">
       <c r="A351" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D351" s="6"/>
     </row>
     <row r="352" spans="1:4" ht="14.25" customHeight="1">
       <c r="A352" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D352" s="6"/>
     </row>
     <row r="353" spans="1:4" ht="14.25" customHeight="1">
       <c r="A353" s="14" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D353" s="6"/>
     </row>
     <row r="354" spans="1:4" ht="14.25" customHeight="1">
       <c r="A354" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D354" s="6"/>
     </row>
     <row r="355" spans="1:4" ht="14.25" customHeight="1">
       <c r="A355" s="14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D355" s="6"/>
     </row>
@@ -5856,7 +5856,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23CD7DC-200E-4461-8C07-BCE79694B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE1CE2-5E73-438B-9016-60698045CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="369">
   <si>
     <t>Name</t>
   </si>
@@ -539,9 +538,6 @@
     <t>Handling security warnings - Success</t>
   </si>
   <si>
-    <t>TimeOut_ErrorDisplayed</t>
-  </si>
-  <si>
     <t>Status_Confirmed</t>
   </si>
   <si>
@@ -602,1039 +598,550 @@
     <t>TimeOut_ValidationFailureDisplayed</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>GL Date</t>
+  </si>
+  <si>
+    <t>ColName_Date</t>
+  </si>
+  <si>
+    <t>GL Account</t>
+  </si>
+  <si>
+    <t>ColName_GLDate</t>
+  </si>
+  <si>
+    <t>ColName_GLAccount</t>
+  </si>
+  <si>
+    <t>BRE_ShipToNameNotFound</t>
+  </si>
+  <si>
+    <t>Entered Value Not Found in Customers Panel List</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>BotComments_SE</t>
+  </si>
+  <si>
+    <t>BotStatus_Date_InvalidDateFormat</t>
+  </si>
+  <si>
+    <t>Date - Invalid Date Format</t>
+  </si>
+  <si>
+    <t>GL Date - Invalid Date Format</t>
+  </si>
+  <si>
+    <t>BotStatus_GLDate_InvalidDateFormat</t>
+  </si>
+  <si>
+    <t>BRE_AgencyErrorDisplayed</t>
+  </si>
+  <si>
+    <t>Entered Agency field in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>TimeOut_FundWindowDisplayed</t>
+  </si>
+  <si>
+    <t>TimeOut_AgencyErrorDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_FundWindowDisplayed</t>
+  </si>
+  <si>
+    <t>Entered Fund field in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>TimeOut_FiscalYearErrorDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_FiscalYearErrorDisplayed</t>
+  </si>
+  <si>
+    <t>Entered Fiscal Year in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>TimeOut_ProgramProjectWindowDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_ProgramProjectWindowDisplayed</t>
+  </si>
+  <si>
+    <t>Entered Program Project field in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>TimeOut_AcitivityWindowDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_ActivityWindowDisplayed</t>
+  </si>
+  <si>
+    <t>Entered Activity field in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>TimeOut_ManagingUnitWindowDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_ManagingUnitWindowDisplayed</t>
+  </si>
+  <si>
+    <t>Entered Managing Unit field in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>TimeOut_CostCenterWindowDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_CostCenterWindowDisplayed</t>
+  </si>
+  <si>
+    <t>Entered Cost Center field in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>TimeOut_ObjectClassWindowDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_ObjectClassWindowDisplayed</t>
+  </si>
+  <si>
+    <t>Entered Object Class field in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>TimeOut_GLAccountWindowDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_GLAccountWindowDisplayed</t>
+  </si>
+  <si>
+    <t>Entered GL Account field in GL Account is incorrect</t>
+  </si>
+  <si>
+    <t>ColName_Agency</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Program Project</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Strategic Goal</t>
+  </si>
+  <si>
+    <t>Funding Org</t>
+  </si>
+  <si>
+    <t>Managing unit</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Object Class</t>
+  </si>
+  <si>
+    <t>Future1</t>
+  </si>
+  <si>
+    <t>Future2</t>
+  </si>
+  <si>
+    <t>Futrue3</t>
+  </si>
+  <si>
+    <t>ColName_Fund</t>
+  </si>
+  <si>
+    <t>ColName_Activity</t>
+  </si>
+  <si>
+    <t>ColName_Future1</t>
+  </si>
+  <si>
+    <t>ColName_Future2</t>
+  </si>
+  <si>
+    <t>ColName_Futrue3</t>
+  </si>
+  <si>
+    <t>ColName_ProgramProject</t>
+  </si>
+  <si>
+    <t>ColName_FiscalYear</t>
+  </si>
+  <si>
+    <t>ColName_StrategicGoal</t>
+  </si>
+  <si>
+    <t>ColName_FundingOrg</t>
+  </si>
+  <si>
+    <t>ColName_CostCenter</t>
+  </si>
+  <si>
+    <t>ColName_ObjectClass</t>
+  </si>
+  <si>
+    <t>Log_GetUniqueTransactionItems</t>
+  </si>
+  <si>
+    <t>Getting Unique Transaction Items from valid data</t>
+  </si>
+  <si>
+    <t>Log_GetUniqueTransactionItemsSuccess</t>
+  </si>
+  <si>
+    <t>Getting Unique Transaction Items from valid data - Success</t>
+  </si>
+  <si>
+    <t>Log_UniqueTransactionItem</t>
+  </si>
+  <si>
+    <t>Unique Transaction Item is -</t>
+  </si>
+  <si>
+    <t>BRE_DuplicatesFound</t>
+  </si>
+  <si>
+    <t>Duplicate Unique Transaction Items Found</t>
+  </si>
+  <si>
+    <t>Log_UniqueTransactionItemsCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Unique Transaction Items - </t>
+  </si>
+  <si>
+    <t>Log_CloseEdgeStart</t>
+  </si>
+  <si>
+    <t>Closing Edge Browser Started</t>
+  </si>
+  <si>
+    <t>Log_CloseEdgeEnd</t>
+  </si>
+  <si>
+    <t>Closing Edge Browser Ended</t>
+  </si>
+  <si>
+    <t>Log_LaunchBrowserFail</t>
+  </si>
+  <si>
+    <t>Reopening Transactions window Started</t>
+  </si>
+  <si>
+    <t>Transactions Window Reopened</t>
+  </si>
+  <si>
+    <t>Log_SelectedTransactionItem</t>
+  </si>
+  <si>
+    <t>Selected Unique Transaction Item is -</t>
+  </si>
+  <si>
+    <t>Batch Rows with Unique Transaction Items filtered</t>
+  </si>
+  <si>
+    <t>Log_UniqueTransactionItemBatch</t>
+  </si>
+  <si>
+    <t>TimeOut_DOLDemoPanelDisplayed</t>
+  </si>
+  <si>
+    <t>TimeOut_IEModeEdgeBrowser</t>
+  </si>
+  <si>
+    <t>RetryNum_GLAccountError_F4Key</t>
+  </si>
+  <si>
+    <t>RetryInterval_GLAccountError_F4Key</t>
+  </si>
+  <si>
+    <t>RetryNum_FiscalYearError</t>
+  </si>
+  <si>
+    <t>RetryInterval_FiscalYearError</t>
+  </si>
+  <si>
+    <t>in number</t>
+  </si>
+  <si>
+    <t>TimeOut_GLDateErrorDisplayed</t>
+  </si>
+  <si>
+    <t>BRE_GLDateErrorDisplayed</t>
+  </si>
+  <si>
+    <t>Entered GL Date is invalid</t>
+  </si>
+  <si>
+    <t>Transaction Created Successfully</t>
+  </si>
+  <si>
+    <t>Log_NavigateToFundDistributions</t>
+  </si>
+  <si>
+    <t>Navigating to FundDistributions</t>
+  </si>
+  <si>
+    <t>Log_NavigateToFundDistributionsSuccess</t>
+  </si>
+  <si>
+    <t>Navigating to FundDistributions- Success</t>
+  </si>
+  <si>
+    <t>SE_ErrMsg_ResponsibilityNotDisplayed</t>
+  </si>
+  <si>
+    <t>DOL Federal Administrator Responsibility Not Displayed</t>
+  </si>
+  <si>
+    <t>DOL Federal Administrator</t>
+  </si>
+  <si>
+    <t>Budget Level</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>Fund Value</t>
+  </si>
+  <si>
+    <t>From Distribution</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Sub Type</t>
+  </si>
+  <si>
+    <t>Increase/Decrease</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>ColName_Number</t>
+  </si>
+  <si>
+    <t>ColName_Increase/Decrease</t>
+  </si>
+  <si>
+    <t>ColName_BudgetLevel</t>
+  </si>
+  <si>
+    <t>ColName_TransactionDate</t>
+  </si>
+  <si>
+    <t>ColName_FundValue</t>
+  </si>
+  <si>
+    <t>ColName_FromDistribution</t>
+  </si>
+  <si>
+    <t>ColName_TransactionType</t>
+  </si>
+  <si>
+    <t>ColName_SubType</t>
+  </si>
+  <si>
+    <t>ColName_TransactionAmount</t>
+  </si>
+  <si>
+    <t>Fund Distributions Process - User Input Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attached is the bot generated Fund Distributions Report. </t>
+  </si>
+  <si>
+    <t>Fund Distributions - Error Occurred</t>
+  </si>
+  <si>
+    <t>Fund Distrubutions - Report</t>
+  </si>
+  <si>
+    <t>ColName_RequestType</t>
+  </si>
+  <si>
+    <t>Request Type</t>
+  </si>
+  <si>
+    <t>ColValue_Adjust</t>
+  </si>
+  <si>
+    <t>Adjust</t>
+  </si>
+  <si>
+    <t>ColValue_Entry</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>BRE_FundCancellationError</t>
+  </si>
+  <si>
+    <t>BRE_BalancingSegmentError</t>
+  </si>
+  <si>
+    <t>Balancing segment Error displayed</t>
+  </si>
+  <si>
+    <t>Fund Cancellation Error displayed</t>
+  </si>
+  <si>
+    <t>BRE_DocumentNumberError</t>
+  </si>
+  <si>
+    <t>Document Number already Exists</t>
+  </si>
+  <si>
+    <t>TimeOut_BudgetLevelWindow</t>
+  </si>
+  <si>
+    <t>BRE_BudgetLevelWindow</t>
+  </si>
+  <si>
+    <t>Budget Level Window Displayed</t>
+  </si>
+  <si>
+    <t>TimeOut_DocumentNumberError</t>
+  </si>
+  <si>
+    <t>TimeOut_GLDateWarning</t>
+  </si>
+  <si>
+    <t>TimeOut_FundCancellationError</t>
+  </si>
+  <si>
+    <t>TimeOut_BalancingSegmentNote</t>
+  </si>
+  <si>
+    <t>TimeOut_NotePopup</t>
+  </si>
+  <si>
+    <t>TimeOut_BalancingSegmentValueError</t>
+  </si>
+  <si>
+    <t>Log_ReOpenFundDistributionsWindow</t>
+  </si>
+  <si>
+    <t>Log_ReOpenFundDistributionsWindowSuccess</t>
+  </si>
+  <si>
+    <t>Log_FundDistributionsEntry</t>
+  </si>
+  <si>
+    <t>Entering Funds</t>
+  </si>
+  <si>
+    <t>Requested type is Adjustment</t>
+  </si>
+  <si>
+    <t>Log_RequestAdjustment</t>
+  </si>
+  <si>
+    <t>Log_QuerybyExample</t>
+  </si>
+  <si>
+    <t>Querying data</t>
+  </si>
+  <si>
+    <t>Entering Main Tab fields</t>
+  </si>
+  <si>
+    <t>Log_FundDistributionsMainTabEntry</t>
+  </si>
+  <si>
+    <t>Log_IncrementIndex</t>
+  </si>
+  <si>
+    <t>Index Incremented to</t>
+  </si>
+  <si>
+    <t>Log_ValidateFundDistributionField</t>
+  </si>
+  <si>
+    <t>Fund Distributions</t>
+  </si>
+  <si>
+    <t>ColName_ManagingUnit</t>
+  </si>
+  <si>
+    <t>BRE_DocumentNumberQueryError</t>
+  </si>
+  <si>
+    <t>Document Number doesn't Exists while querying</t>
+  </si>
+  <si>
+    <t>Validating Entered Fund Distribution field</t>
+  </si>
+  <si>
+    <t>ColName_ApportionmentCategory</t>
+  </si>
+  <si>
+    <t>Apportionment Category</t>
+  </si>
+  <si>
+    <t>ColName_TreasuryAccountSymbol</t>
+  </si>
+  <si>
+    <t>Treasury Account Symbol</t>
+  </si>
+  <si>
+    <t>ColName_DirectOrReimbursableCode</t>
+  </si>
+  <si>
+    <t>Direct or Reimbursable Code</t>
+  </si>
+  <si>
+    <t>ColName_DocumentTotal</t>
+  </si>
+  <si>
+    <t>Document Total</t>
+  </si>
+  <si>
+    <t>ColName_Status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ColName_AmountForDistribution</t>
+  </si>
+  <si>
+    <t>Amount for Distribution</t>
+  </si>
+  <si>
     <t>ColName_Source</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Legal Entity</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>GL Date</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Ship To Name</t>
-  </si>
-  <si>
-    <t>Ship To Number</t>
-  </si>
-  <si>
-    <t>Ship To Location</t>
-  </si>
-  <si>
-    <t>Ship To AddressField1</t>
-  </si>
-  <si>
-    <t>Ship To AddressField2</t>
-  </si>
-  <si>
-    <t>Ship To AddressField3</t>
-  </si>
-  <si>
-    <t>Ship To Contact</t>
-  </si>
-  <si>
-    <t>Bill To Name</t>
-  </si>
-  <si>
-    <t>Bill To Number</t>
-  </si>
-  <si>
-    <t>Bill To Location</t>
-  </si>
-  <si>
-    <t>Bill To AddressField1</t>
-  </si>
-  <si>
-    <t>Bill To AddressField2</t>
-  </si>
-  <si>
-    <t>Bill To AddressField3</t>
-  </si>
-  <si>
-    <t>Bill To Contact</t>
-  </si>
-  <si>
-    <t>ColName_Class</t>
-  </si>
-  <si>
-    <t>ColName_Type</t>
-  </si>
-  <si>
-    <t>ColName_Reference</t>
-  </si>
-  <si>
-    <t>ColName_Date</t>
-  </si>
-  <si>
-    <t>ColName_Currency</t>
-  </si>
-  <si>
-    <t>Sold To Name</t>
-  </si>
-  <si>
-    <t>Sold To Number</t>
-  </si>
-  <si>
-    <t>Paying Customer Name</t>
-  </si>
-  <si>
-    <t>Paying Customer Number</t>
-  </si>
-  <si>
-    <t>Paying Customer Location</t>
-  </si>
-  <si>
-    <t>Commitment</t>
-  </si>
-  <si>
-    <t>Payment Term</t>
-  </si>
-  <si>
-    <t>Invoicing Rule</t>
-  </si>
-  <si>
-    <t>Receipt Method</t>
-  </si>
-  <si>
-    <t>Trans  Line</t>
-  </si>
-  <si>
-    <t>Detail Line</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>GL Account</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Distribution Amount</t>
-  </si>
-  <si>
-    <t>Transaction Number</t>
-  </si>
-  <si>
-    <t>ColName_Commitment</t>
-  </si>
-  <si>
-    <t>ColName_Description</t>
-  </si>
-  <si>
-    <t>ColName_UOM</t>
-  </si>
-  <si>
-    <t>ColName_Quantity</t>
-  </si>
-  <si>
-    <t>ColName_UnitPrice</t>
-  </si>
-  <si>
-    <t>ColName_Amount</t>
-  </si>
-  <si>
-    <t>ColName_Percent</t>
-  </si>
-  <si>
-    <t>ColName_GLDate</t>
-  </si>
-  <si>
-    <t>ColName_LegalEntity</t>
-  </si>
-  <si>
-    <t>ColName_ShipToName</t>
-  </si>
-  <si>
-    <t>ColName_ShipToNumber</t>
-  </si>
-  <si>
-    <t>ColName_ShipToLocation</t>
-  </si>
-  <si>
-    <t>ColName_ShipToAddressField1</t>
-  </si>
-  <si>
-    <t>ColName_ShipToAddressField2</t>
-  </si>
-  <si>
-    <t>ColName_ShipToAddressField3</t>
-  </si>
-  <si>
-    <t>ColName_ShipToContact</t>
-  </si>
-  <si>
-    <t>ColName_BillToName</t>
-  </si>
-  <si>
-    <t>ColName_BillToNumber</t>
-  </si>
-  <si>
-    <t>ColName_BillToLocation</t>
-  </si>
-  <si>
-    <t>ColName_BillToAddressField1</t>
-  </si>
-  <si>
-    <t>ColName_BillToAddressField2</t>
-  </si>
-  <si>
-    <t>ColName_BillToAddressField3</t>
-  </si>
-  <si>
-    <t>ColName_BillToContact</t>
-  </si>
-  <si>
-    <t>ColName_SoldToName</t>
-  </si>
-  <si>
-    <t>ColName_SoldToNumber</t>
-  </si>
-  <si>
-    <t>ColName_PayingCustomerName</t>
-  </si>
-  <si>
-    <t>ColName_PayingCustomerNumber</t>
-  </si>
-  <si>
-    <t>ColName_PayingCustomerLocation</t>
-  </si>
-  <si>
-    <t>ColName_PaymentTerm</t>
-  </si>
-  <si>
-    <t>ColName_InvoicingRule</t>
-  </si>
-  <si>
-    <t>ColName_ReceiptMethod</t>
-  </si>
-  <si>
-    <t>ColName_TransLine</t>
-  </si>
-  <si>
-    <t>ColName_DetailLine</t>
-  </si>
-  <si>
-    <t>ColName_GLAccount</t>
-  </si>
-  <si>
-    <t>ColName_DistributionAmount</t>
-  </si>
-  <si>
-    <t>ColName_TransactionNumber</t>
-  </si>
-  <si>
-    <t>BRE_ShipToNameNotFound</t>
-  </si>
-  <si>
-    <t>Entered Value Not Found in Customers Panel List</t>
-  </si>
-  <si>
-    <t>ColName_Territory</t>
-  </si>
-  <si>
-    <t>Territory</t>
-  </si>
-  <si>
-    <t>ColName_Salesperson</t>
-  </si>
-  <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
-    <t>ColName_PurchaseOrderNumber</t>
-  </si>
-  <si>
-    <t>Purchase Order Number</t>
-  </si>
-  <si>
-    <t>ColName_PurchaseOrderRevision</t>
-  </si>
-  <si>
-    <t>Purchase Order Revision</t>
-  </si>
-  <si>
-    <t>ColName_PurchaseOrderDate</t>
-  </si>
-  <si>
-    <t>Purchase Order Date</t>
-  </si>
-  <si>
-    <t>ColName_SpecialInstructions</t>
-  </si>
-  <si>
-    <t>Special Instructions</t>
-  </si>
-  <si>
-    <t>ColName_Comments</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>ColName_RemitToAddress</t>
-  </si>
-  <si>
-    <t>Remit To Address</t>
-  </si>
-  <si>
-    <t>ColName_Item</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Trans Line</t>
-  </si>
-  <si>
-    <t>Sales Order Number</t>
-  </si>
-  <si>
-    <t>Sales Order Line</t>
-  </si>
-  <si>
-    <t>Sales Order Date</t>
-  </si>
-  <si>
-    <t>Sales Order Rev</t>
-  </si>
-  <si>
-    <t>Sales Order Channel</t>
-  </si>
-  <si>
-    <t>Tax Handling</t>
-  </si>
-  <si>
-    <t>Tax Exemption End Date</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Rules Start Date</t>
-  </si>
-  <si>
-    <t>Rules End Date</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>More Reference</t>
-  </si>
-  <si>
-    <t>Trans Code</t>
-  </si>
-  <si>
-    <t>Translated Desc</t>
-  </si>
-  <si>
-    <t>Warehouse Name</t>
-  </si>
-  <si>
-    <t>ColName_SalesOrderNumber</t>
-  </si>
-  <si>
-    <t>ColName_SalesOrderLine</t>
-  </si>
-  <si>
-    <t>ColName_SalesOrderDate</t>
-  </si>
-  <si>
-    <t>ColName_SalesOrderRev</t>
-  </si>
-  <si>
-    <t>ColName_SalesOrderChannel</t>
-  </si>
-  <si>
-    <t>ColName_TaxHandling</t>
-  </si>
-  <si>
-    <t>ColName_TaxExemptionEndDate</t>
-  </si>
-  <si>
-    <t>ColName_Accounting</t>
-  </si>
-  <si>
-    <t>ColName_Duration</t>
-  </si>
-  <si>
-    <t>ColName_RulesStartDate</t>
-  </si>
-  <si>
-    <t>ColName_RulesEndDate</t>
-  </si>
-  <si>
-    <t>ColName_Reason</t>
-  </si>
-  <si>
-    <t>ColName_TransCode</t>
-  </si>
-  <si>
-    <t>ColName_TranslatedDesc</t>
-  </si>
-  <si>
-    <t>ColName_MoreTabReference</t>
-  </si>
-  <si>
-    <t>ColName_WarehouseName</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>ColName_UTI</t>
-  </si>
-  <si>
-    <t>UTI</t>
-  </si>
-  <si>
-    <t>BotComments_SE</t>
-  </si>
-  <si>
-    <t>BotStatus_Date_InvalidDateFormat</t>
-  </si>
-  <si>
-    <t>Date - Invalid Date Format</t>
-  </si>
-  <si>
-    <t>GL Date - Invalid Date Format</t>
-  </si>
-  <si>
-    <t>BotStatus_GLDate_InvalidDateFormat</t>
-  </si>
-  <si>
-    <t>BRE_AgencyErrorDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Agency field in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_FundWindowDisplayed</t>
-  </si>
-  <si>
-    <t>TimeOut_AgencyErrorDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_FundWindowDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Fund field in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_FiscalYearErrorDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_FiscalYearErrorDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Fiscal Year in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_ProgramProjectWindowDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_ProgramProjectWindowDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Program Project field in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_AcitivityWindowDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_ActivityWindowDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Activity field in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_ManagingUnitWindowDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_ManagingUnitWindowDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Managing Unit field in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_CostCenterWindowDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_CostCenterWindowDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Cost Center field in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_ObjectClassWindowDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_ObjectClassWindowDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Object Class field in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_GLAccountWindowDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_GLAccountWindowDisplayed</t>
-  </si>
-  <si>
-    <t>Entered GL Account field in GL Account is incorrect</t>
-  </si>
-  <si>
-    <t>ColName_Agency</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Fund</t>
-  </si>
-  <si>
-    <t>Fiscal Year</t>
-  </si>
-  <si>
-    <t>Program Project</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Strategic Goal</t>
-  </si>
-  <si>
-    <t>Funding Org</t>
-  </si>
-  <si>
-    <t>Managing unit</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Object Class</t>
-  </si>
-  <si>
-    <t>Future1</t>
-  </si>
-  <si>
-    <t>Future2</t>
-  </si>
-  <si>
-    <t>Futrue3</t>
-  </si>
-  <si>
-    <t>ColName_Fund</t>
-  </si>
-  <si>
-    <t>ColName_Activity</t>
-  </si>
-  <si>
-    <t>ColName_Future1</t>
-  </si>
-  <si>
-    <t>ColName_Future2</t>
-  </si>
-  <si>
-    <t>ColName_Futrue3</t>
-  </si>
-  <si>
-    <t>ColName_ProgramProject</t>
-  </si>
-  <si>
-    <t>ColName_FiscalYear</t>
-  </si>
-  <si>
-    <t>ColName_StrategicGoal</t>
-  </si>
-  <si>
-    <t>ColName_FundingOrg</t>
-  </si>
-  <si>
-    <t>ColName_ManagingUnit</t>
-  </si>
-  <si>
-    <t>ColName_CostCenter</t>
-  </si>
-  <si>
-    <t>ColName_ObjectClass</t>
-  </si>
-  <si>
-    <t>Invoice Transactions</t>
-  </si>
-  <si>
-    <t>Log_GetUniqueTransactionItems</t>
-  </si>
-  <si>
-    <t>Getting Unique Transaction Items from valid data</t>
-  </si>
-  <si>
-    <t>Log_GetUniqueTransactionItemsSuccess</t>
-  </si>
-  <si>
-    <t>Getting Unique Transaction Items from valid data - Success</t>
-  </si>
-  <si>
-    <t>Log_UniqueTransactionItem</t>
-  </si>
-  <si>
-    <t>Unique Transaction Item is -</t>
-  </si>
-  <si>
-    <t>BRE_DuplicatesFound</t>
-  </si>
-  <si>
-    <t>Duplicate Unique Transaction Items Found</t>
-  </si>
-  <si>
-    <t>Log_UniqueTransactionItemsCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Unique Transaction Items - </t>
-  </si>
-  <si>
-    <t>Log_CloseEdgeStart</t>
-  </si>
-  <si>
-    <t>Closing Edge Browser Started</t>
-  </si>
-  <si>
-    <t>Log_CloseEdgeEnd</t>
-  </si>
-  <si>
-    <t>Closing Edge Browser Ended</t>
-  </si>
-  <si>
-    <t>Log_LaunchBrowserFail</t>
-  </si>
-  <si>
-    <t>Log_ReOpenTransactionsWindow</t>
-  </si>
-  <si>
-    <t>Reopening Transactions window Started</t>
-  </si>
-  <si>
-    <t>Log_ReOpenTransactionsWindowSuccess</t>
-  </si>
-  <si>
-    <t>Transactions Window Reopened</t>
-  </si>
-  <si>
-    <t>Log_SelectedTransactionItem</t>
-  </si>
-  <si>
-    <t>Selected Unique Transaction Item is -</t>
-  </si>
-  <si>
-    <t>Batch Rows with Unique Transaction Items filtered</t>
-  </si>
-  <si>
-    <t>Log_UniqueTransactionItemBatch</t>
-  </si>
-  <si>
-    <t>Transaction Window Fields Entry started</t>
-  </si>
-  <si>
-    <t>Log_TransactionWindowFieldsEntry</t>
-  </si>
-  <si>
-    <t>TimeOut_InvalidError</t>
-  </si>
-  <si>
-    <t>TimeOut_CustomersPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_ShipToNumberError</t>
-  </si>
-  <si>
-    <t>BRE_ShipToNameError</t>
-  </si>
-  <si>
-    <t>TimeOut_FormsPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_ShipToLocationError</t>
-  </si>
-  <si>
-    <t>BRE_ShipToAddressField1</t>
-  </si>
-  <si>
-    <t>BRE_ShipToContactError</t>
-  </si>
-  <si>
-    <t>BRE_BillToNameError</t>
-  </si>
-  <si>
-    <t>Entered Bill To Name field is wrong</t>
-  </si>
-  <si>
-    <t>Entered Ship To Name field is wrong</t>
-  </si>
-  <si>
-    <t>Entered Ship To Number field is wrong</t>
-  </si>
-  <si>
-    <t>Entered Ship To Location field is wrong</t>
-  </si>
-  <si>
-    <t>Entered Ship To Address Field1 field is wrong</t>
-  </si>
-  <si>
-    <t>Entered Ship To Contact field is wrong</t>
-  </si>
-  <si>
-    <t>BRE_BillToNumberError</t>
-  </si>
-  <si>
-    <t>Entered Bill To Number field is wrong</t>
-  </si>
-  <si>
-    <t>BRE_BillToLocationError</t>
-  </si>
-  <si>
-    <t>Entered Bill To Location field is wrong</t>
-  </si>
-  <si>
-    <t>BRE_BillToAddressField1</t>
-  </si>
-  <si>
-    <t>Entered Bill To Address Field1 field is wrong</t>
-  </si>
-  <si>
-    <t>TimeOut_BillToAddressesPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_BillToContactError</t>
-  </si>
-  <si>
-    <t>Entered Bill To Contact field is wrong</t>
-  </si>
-  <si>
-    <t>BRE_SoldToNameError</t>
-  </si>
-  <si>
-    <t>Entered Sold To Name field is wrong</t>
-  </si>
-  <si>
-    <t>BRE_SoldToNumberError</t>
-  </si>
-  <si>
-    <t>Entered Sold To Number field is wrong</t>
-  </si>
-  <si>
-    <t>Entered Paying Customer Name is wrong</t>
-  </si>
-  <si>
-    <t>Entered Paying Customer Number is wrong</t>
-  </si>
-  <si>
-    <t>TimeOut_PayingCustomerLocationsDisplayed</t>
-  </si>
-  <si>
-    <t>Entered Paying Customer Location is wrong</t>
-  </si>
-  <si>
-    <t>BRE_CommitmentError</t>
-  </si>
-  <si>
-    <t>Entered Commitment field is wrong</t>
-  </si>
-  <si>
-    <t>BRE_PayingCustomerNameError</t>
-  </si>
-  <si>
-    <t>BRE_PayingCustomerNumberError</t>
-  </si>
-  <si>
-    <t>BRE_PayingCustomerLocationsError</t>
-  </si>
-  <si>
-    <t>TimeOut_CommitmentPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_PaymentTermError</t>
-  </si>
-  <si>
-    <t>Entered Payment Term field is wrong</t>
-  </si>
-  <si>
-    <t>TimeOut_PaymentTermPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_PaymentMethodsPanelError</t>
-  </si>
-  <si>
-    <t>Entered Receipt Method field is wrong</t>
-  </si>
-  <si>
-    <t>TimeOut_PaymentMethodPanelDisplayed</t>
-  </si>
-  <si>
-    <t>TimeOut_NotePanelDisplayed</t>
-  </si>
-  <si>
-    <t>TimeOut_CustomerTerritoryFlexFieldDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_TerritoryFieldError</t>
-  </si>
-  <si>
-    <t>Entered Territory field is incorrect</t>
-  </si>
-  <si>
-    <t>BRE_SalesPersonFieldError</t>
-  </si>
-  <si>
-    <t>Entered Sales Person field is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_SalelsRepresentativePanelDisplayed</t>
-  </si>
-  <si>
-    <t>TimeOut_DefaultTaxPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_DefaultTaxPanelFieldError</t>
-  </si>
-  <si>
-    <t>Entered Default Tax Panel field is incorrect</t>
-  </si>
-  <si>
-    <t>BRE_AggrementFieldError</t>
-  </si>
-  <si>
-    <t>Entered Aggreement field is incorrect</t>
-  </si>
-  <si>
-    <t>BRE_CrossReferenceFieldError</t>
-  </si>
-  <si>
-    <t>Entered Cross Reference field is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_TransactionsPanelDisplayed</t>
-  </si>
-  <si>
-    <t>TimeOut_RemitToAddressesPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_RemitToAddressesFieldError</t>
-  </si>
-  <si>
-    <t>Entered Remit To Address Field is incorrect</t>
-  </si>
-  <si>
-    <t>TimeOut_UOMsPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_UOMsFieldError</t>
-  </si>
-  <si>
-    <t>Entered UOM field is incorrect</t>
-  </si>
-  <si>
-    <t>BRE_DistributionAmountMismatch</t>
-  </si>
-  <si>
-    <t>Entered Distribution Amount not matched with Line Amount</t>
-  </si>
-  <si>
-    <t>TimeOut_DOLDemoPanelDisplayed</t>
-  </si>
-  <si>
-    <t>Log_GeneratedTransactionNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generated Transaction Number is - </t>
-  </si>
-  <si>
-    <t>Log_DistributionsEntryStart</t>
-  </si>
-  <si>
-    <t>Distributions Entry Started</t>
-  </si>
-  <si>
-    <t>Log_DistributionsEntrySuccess</t>
-  </si>
-  <si>
-    <t>Distributions Entry Success</t>
-  </si>
-  <si>
-    <t>Log_SingleLineGLAccountEntry</t>
-  </si>
-  <si>
-    <t>Log_MultipleLineGLAccountEntry</t>
-  </si>
-  <si>
-    <t>Single Line GL Account Entry started</t>
-  </si>
-  <si>
-    <t>Multiple Line GL Account Entry started</t>
-  </si>
-  <si>
-    <t>LogLinesWindowEntryStart</t>
-  </si>
-  <si>
-    <t>Entering Lines window fields started</t>
-  </si>
-  <si>
-    <t>LogLinesWindowEntrySuccess</t>
-  </si>
-  <si>
-    <t>Entering Lines window fields success</t>
-  </si>
-  <si>
-    <t>TimeOut_IEModeEdgeBrowser</t>
-  </si>
-  <si>
-    <t>RetryNum_GLAccountError_F4Key</t>
-  </si>
-  <si>
-    <t>RetryInterval_GLAccountError_F4Key</t>
-  </si>
-  <si>
-    <t>RetryNum_FiscalYearError</t>
-  </si>
-  <si>
-    <t>RetryInterval_FiscalYearError</t>
-  </si>
-  <si>
-    <t>in number</t>
-  </si>
-  <si>
-    <t>TimeOut_GLDateErrorDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_GLDateErrorDisplayed</t>
-  </si>
-  <si>
-    <t>Entered GL Date is invalid</t>
-  </si>
-  <si>
-    <t>Transaction Created Successfully</t>
-  </si>
-  <si>
-    <t>Log_NavigateToFundDistributions</t>
-  </si>
-  <si>
-    <t>Navigating to FundDistributions</t>
-  </si>
-  <si>
-    <t>Log_NavigateToFundDistributionsSuccess</t>
-  </si>
-  <si>
-    <t>Navigating to FundDistributions- Success</t>
-  </si>
-  <si>
-    <t>SE_ErrMsg_ResponsibilityNotDisplayed</t>
-  </si>
-  <si>
-    <t>DOL Federal Administrator Responsibility Not Displayed</t>
-  </si>
-  <si>
-    <t>DOL Federal Administrator</t>
-  </si>
-  <si>
-    <t>Budget Level</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Transaction Date</t>
-  </si>
-  <si>
-    <t>Fund Value</t>
-  </si>
-  <si>
-    <t>From Distribution</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>Sub Type</t>
-  </si>
-  <si>
-    <t>Increase/Decrease</t>
-  </si>
-  <si>
-    <t>Transaction Amount</t>
-  </si>
-  <si>
-    <t>ColName_Number</t>
-  </si>
-  <si>
-    <t>ColName_Increase/Decrease</t>
-  </si>
-  <si>
-    <t>ColName_BudgetLevel</t>
-  </si>
-  <si>
-    <t>ColName_TransactionDate</t>
-  </si>
-  <si>
-    <t>ColName_FundValue</t>
-  </si>
-  <si>
-    <t>ColName_FromDistribution</t>
-  </si>
-  <si>
-    <t>ColName_Managingunit</t>
-  </si>
-  <si>
-    <t>ColName_TransactionType</t>
-  </si>
-  <si>
-    <t>ColName_SubType</t>
-  </si>
-  <si>
-    <t>ColName_TransactionAmount</t>
-  </si>
-  <si>
-    <t>Fund Distributions Process - User Input Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attached is the bot generated Fund Distributions Report. </t>
-  </si>
-  <si>
-    <t>Fund Distributions - Error Occurred</t>
-  </si>
-  <si>
-    <t>Fund Distrubutions - Report</t>
+    <t>ColName_CheckFundsMessage</t>
+  </si>
+  <si>
+    <t>Check Funds Decision Message</t>
   </si>
 </sst>
 </file>
@@ -1693,33 +1200,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2034,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1208"/>
+  <dimension ref="A1:Z1141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2092,7 +1595,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -2129,10 +1632,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
@@ -2153,12 +1656,7 @@
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="14.5">
-      <c r="A12" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>233</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -2188,1408 +1686,1429 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>326</v>
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="14.5">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.5">
+      <c r="A19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.5">
+      <c r="A20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.5">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.5">
+      <c r="A22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1">
-      <c r="A23" s="2" t="s">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>309</v>
+      </c>
+      <c r="B41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.5">
+      <c r="A42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.5">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.5">
+      <c r="A44" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.5">
+      <c r="A45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.5">
+      <c r="A46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.5">
+      <c r="A47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.5">
+      <c r="A48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.5">
+      <c r="A49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.5">
+      <c r="A50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.5"/>
+    <row r="52" spans="1:2" ht="14.5">
+      <c r="A52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.5">
+      <c r="A53" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.5">
+      <c r="A55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" customHeight="1">
+      <c r="A56" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.5">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.5">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.5">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.5">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="65" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.5">
-      <c r="A24" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="68" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A68" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.5">
-      <c r="A25" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.5">
-      <c r="A26" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.5">
-      <c r="A27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.5">
-      <c r="A28" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.5">
-      <c r="A29" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.5">
-      <c r="A30" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.5">
-      <c r="A31" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.5">
-      <c r="A32" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.5">
-      <c r="A33" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.5">
-      <c r="A34" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.5">
-      <c r="A35" s="2" t="s">
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" customHeight="1">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.5">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.5">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.5">
+      <c r="A77" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.5">
-      <c r="A36" s="2" t="s">
+      <c r="B77" t="s">
         <v>254</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.5">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="14.5">
+      <c r="A78" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.5">
+      <c r="A79" t="s">
         <v>255</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.5">
-      <c r="A38" s="2" t="s">
+      <c r="B79" t="s">
         <v>256</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.5">
-      <c r="A39" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.5">
-      <c r="A40" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.5">
-      <c r="A41" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.5">
-      <c r="A42" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.5">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="14.5">
+      <c r="A80" t="s">
         <v>261</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.5">
-      <c r="A44" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.5">
-      <c r="A45" s="2" t="s">
+      <c r="B80" t="s">
         <v>262</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.5">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="14.5">
+      <c r="A81" t="s">
         <v>263</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.5">
-      <c r="A47" s="2" t="s">
+      <c r="B81" t="s">
         <v>264</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.5">
-      <c r="A48" s="2" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="14.5">
+      <c r="A82" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.5">
-      <c r="A49" s="2" t="s">
+      <c r="B82" t="s">
         <v>266</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.5">
-      <c r="A50" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.5">
-      <c r="A51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.5">
-      <c r="A52" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.5">
-      <c r="A53" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.5">
-      <c r="A54" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.5">
-      <c r="A55" s="2" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="14.5">
+      <c r="A83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.5">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.5">
+      <c r="A85" t="s">
         <v>267</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.5">
-      <c r="A56" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.5">
-      <c r="A57" s="2" t="s">
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.5">
+      <c r="A86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.5">
+      <c r="A87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.5">
+      <c r="A88" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" t="s">
         <v>268</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.5">
-      <c r="A58" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.5">
-      <c r="A59" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.5">
-      <c r="A60" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.5">
-      <c r="A61" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.5">
-      <c r="A62" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.5">
-      <c r="A63" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.5">
-      <c r="A64" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.5">
-      <c r="A65" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.5">
-      <c r="A66" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.5">
-      <c r="A67" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.5">
-      <c r="A68" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.5">
-      <c r="A69" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.5">
-      <c r="A70" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.5">
-      <c r="A71" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.5">
-      <c r="A72" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.5">
-      <c r="A73" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.5">
-      <c r="A74" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.5">
-      <c r="A75" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.5">
-      <c r="A76" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.5">
-      <c r="A77" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.5">
-      <c r="A78" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.5">
-      <c r="A79" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.5">
-      <c r="A80" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.5">
-      <c r="A81" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="14.5">
-      <c r="A82" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.5">
-      <c r="A83" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14.5">
-      <c r="A84" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="14.5">
-      <c r="A85" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="14.5">
-      <c r="A86" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.5">
-      <c r="A87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="14.5">
-      <c r="A88" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="14.5">
-      <c r="A89" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="14.5">
-      <c r="A91" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="14.5">
-      <c r="A92" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>362</v>
+    </row>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A92" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.5">
       <c r="A93" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>363</v>
+        <v>270</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.5">
       <c r="A94" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>364</v>
+        <v>273</v>
+      </c>
+      <c r="B94" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.5">
       <c r="A95" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>365</v>
+        <v>337</v>
+      </c>
+      <c r="B95" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.5">
       <c r="A96" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="14.5">
+        <v>340</v>
+      </c>
+      <c r="B96" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.5">
       <c r="A97" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="14.5">
+        <v>341</v>
+      </c>
+      <c r="B97" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.5">
       <c r="A98" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="14.5">
+        <v>344</v>
+      </c>
+      <c r="B98" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.5">
       <c r="A99" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="14.5">
+        <v>345</v>
+      </c>
+      <c r="B99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.5">
       <c r="A100" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="14.5">
-      <c r="A101" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="14.5">
-      <c r="A102" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="14.5">
-      <c r="A103" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="14.5">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="106" spans="1:2" ht="14.5">
+        <v>347</v>
+      </c>
+      <c r="B100" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.5">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>328</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A108" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A109" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C111" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A114" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A115" t="s">
+        <v>101</v>
+      </c>
+      <c r="B115" s="5">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.5"/>
+    <row r="117" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A117" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="119" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A120" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="122" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A122" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A123" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A124" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A125" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="127" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A127" t="s">
+        <v>275</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A128" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129">
+        <v>40000</v>
+      </c>
+      <c r="C129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A131" t="s">
+        <v>105</v>
+      </c>
+      <c r="B131">
+        <v>30000</v>
+      </c>
+      <c r="C131" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132">
+        <v>30000</v>
+      </c>
+      <c r="C132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A133" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133">
+        <v>60000</v>
+      </c>
+      <c r="C133" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A135" t="s">
+        <v>74</v>
+      </c>
+      <c r="B135">
+        <v>2000</v>
+      </c>
+      <c r="C135" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A136" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A137" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="139" spans="1:3" ht="15" customHeight="1">
+      <c r="A139" t="s">
+        <v>75</v>
+      </c>
+      <c r="B139">
+        <v>2000</v>
+      </c>
+      <c r="C139" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A140" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A141" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="143" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143">
+        <v>3000</v>
+      </c>
+      <c r="C143" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="145" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A145" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="1:3" ht="14" customHeight="1">
+      <c r="A147" t="s">
+        <v>121</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="149" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A149" t="s">
+        <v>132</v>
+      </c>
+      <c r="B149">
+        <v>60000</v>
+      </c>
+      <c r="C149" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A150" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150">
+        <v>60000</v>
+      </c>
+      <c r="C150" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A151" t="s">
+        <v>133</v>
+      </c>
+      <c r="B151">
+        <v>60000</v>
+      </c>
+      <c r="C151" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16" customHeight="1">
+      <c r="A152" t="s">
+        <v>326</v>
+      </c>
+      <c r="B152">
+        <v>100</v>
+      </c>
+      <c r="C152" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A153" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1">
-      <c r="A107" t="s">
+      <c r="B153">
+        <v>100</v>
+      </c>
+      <c r="C153" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A154" t="s">
+        <v>330</v>
+      </c>
+      <c r="B154">
+        <v>100</v>
+      </c>
+      <c r="C154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A155" t="s">
         <v>331</v>
       </c>
-      <c r="B107" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="14.5">
-      <c r="A108" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="14.5">
-      <c r="A109" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="14.5">
-      <c r="A110" t="s">
-        <v>156</v>
-      </c>
-      <c r="B110" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="14.5">
-      <c r="A111" t="s">
-        <v>157</v>
-      </c>
-      <c r="B111" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="113" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A113" t="s">
-        <v>127</v>
-      </c>
-      <c r="B113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A114" t="s">
-        <v>67</v>
-      </c>
-      <c r="B114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="116" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A116" t="s">
-        <v>49</v>
-      </c>
-      <c r="B116" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A117" t="s">
-        <v>66</v>
-      </c>
-      <c r="B117" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="119" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A119" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1">
-      <c r="A121" t="s">
-        <v>63</v>
-      </c>
-      <c r="B121" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1">
-      <c r="A122" t="s">
-        <v>64</v>
-      </c>
-      <c r="B122" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1">
-      <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A127" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="14.5">
-      <c r="A128" t="s">
-        <v>151</v>
-      </c>
-      <c r="B128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="14.5">
-      <c r="A129" t="s">
-        <v>161</v>
-      </c>
-      <c r="B129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="14.5">
-      <c r="A130" t="s">
-        <v>386</v>
-      </c>
-      <c r="B130" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="14.5">
-      <c r="A131" t="s">
-        <v>390</v>
-      </c>
-      <c r="B131" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="14.5">
-      <c r="A132" t="s">
-        <v>388</v>
-      </c>
-      <c r="B132" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="14.5">
-      <c r="A133" t="s">
-        <v>394</v>
-      </c>
-      <c r="B133" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="14.5">
-      <c r="A134" t="s">
-        <v>396</v>
-      </c>
-      <c r="B134" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="14.5">
-      <c r="A135" t="s">
-        <v>398</v>
-      </c>
-      <c r="B135" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="14.5">
-      <c r="A136" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="14.5">
-      <c r="A137" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="14.5">
-      <c r="A138" t="s">
-        <v>400</v>
-      </c>
-      <c r="B138" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="14.5">
-      <c r="A139" t="s">
-        <v>147</v>
-      </c>
-      <c r="B139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" s="9" customFormat="1" ht="14.5">
-      <c r="A140" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" s="9" customFormat="1" ht="14.5">
-      <c r="A141" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A143" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A144" t="s">
-        <v>401</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A145" t="s">
-        <v>403</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="14.5">
-      <c r="A146" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="14.5">
-      <c r="A147" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="14.5">
-      <c r="A148" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="14.5">
-      <c r="A149" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="14.5">
-      <c r="A150" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="14.5">
-      <c r="A151" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="14.5">
-      <c r="A152" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="14.5">
-      <c r="A153" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="14.5">
-      <c r="A154" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="14.5">
-      <c r="A155" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="14.5">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:2" ht="14.5">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A160" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A161" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A163" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A164" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A165" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A167" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B167" s="7">
-        <v>2000</v>
+      <c r="B155">
+        <v>100</v>
+      </c>
+      <c r="C155" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A156" t="s">
+        <v>332</v>
+      </c>
+      <c r="B156">
+        <v>100</v>
+      </c>
+      <c r="C156" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A157" t="s">
+        <v>333</v>
+      </c>
+      <c r="B157">
+        <v>100</v>
+      </c>
+      <c r="C157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A158" t="s">
+        <v>334</v>
+      </c>
+      <c r="B158">
+        <v>100</v>
+      </c>
+      <c r="C158" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A159" t="s">
+        <v>274</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A160" t="s">
+        <v>281</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" customHeight="1">
+      <c r="A161" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A162" t="s">
+        <v>204</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A163" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A164" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A165" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A166" t="s">
+        <v>213</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A167" t="s">
+        <v>216</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A168" s="6" t="s">
-        <v>71</v>
+    <row r="168" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A168" t="s">
+        <v>219</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A169" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A170" t="s">
+        <v>225</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="172" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="173" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A175" t="s">
+        <v>208</v>
+      </c>
+      <c r="B175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A176" t="s">
+        <v>211</v>
+      </c>
+      <c r="B176" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A177" t="s">
+        <v>214</v>
+      </c>
+      <c r="B177" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A178" t="s">
+        <v>217</v>
+      </c>
+      <c r="B178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A179" t="s">
+        <v>220</v>
+      </c>
+      <c r="B179" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A180" t="s">
+        <v>223</v>
+      </c>
+      <c r="B180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A181" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A182" t="s">
+        <v>327</v>
+      </c>
+      <c r="B182" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.5" customHeight="1">
+      <c r="A183" t="s">
+        <v>320</v>
+      </c>
+      <c r="B183" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A184" t="s">
+        <v>321</v>
+      </c>
+      <c r="B184" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="16" customHeight="1">
+      <c r="A185" t="s">
+        <v>324</v>
+      </c>
+      <c r="B185" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="16" customHeight="1">
+      <c r="A186" t="s">
+        <v>350</v>
+      </c>
+      <c r="B186" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="16" customHeight="1"/>
+    <row r="188" spans="1:2" ht="16" customHeight="1"/>
+    <row r="189" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="190" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A190" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="17.5" customHeight="1"/>
+    <row r="192" spans="1:2" ht="14.5">
+      <c r="A192" t="s">
+        <v>50</v>
+      </c>
+      <c r="B192" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14.5">
+      <c r="A193" t="s">
+        <v>51</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.5">
+      <c r="A194" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.5">
+      <c r="A195" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="14.5"/>
+    <row r="197" spans="1:3" ht="14.5">
+      <c r="A197" t="s">
+        <v>57</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.5">
+      <c r="A198" t="s">
+        <v>59</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14.5">
+      <c r="A199" t="s">
+        <v>60</v>
+      </c>
+      <c r="B199" s="5">
+        <v>60</v>
+      </c>
+      <c r="C199" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A169" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C169" s="6"/>
-    </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A170" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B170" s="7">
-        <v>3</v>
-      </c>
-      <c r="C170" s="6"/>
-    </row>
-    <row r="171" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A171" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B171" s="7">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="14.5"/>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A173" t="s">
-        <v>91</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="175" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A175" t="s">
-        <v>108</v>
-      </c>
-      <c r="B175" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A176" t="s">
-        <v>96</v>
-      </c>
-      <c r="B176" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A178" t="s">
-        <v>110</v>
-      </c>
-      <c r="B178" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A179" t="s">
-        <v>116</v>
-      </c>
-      <c r="B179" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A180" t="s">
-        <v>111</v>
-      </c>
-      <c r="B180" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A181" t="s">
-        <v>117</v>
-      </c>
-      <c r="B181" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A183" t="s">
-        <v>493</v>
-      </c>
-      <c r="B183">
-        <v>5</v>
-      </c>
-      <c r="C183" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A184" t="s">
-        <v>114</v>
-      </c>
-      <c r="B184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A185" t="s">
-        <v>115</v>
-      </c>
-      <c r="B185">
-        <v>40000</v>
-      </c>
-      <c r="C185" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A186" s="6"/>
-      <c r="B186" s="7"/>
-    </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A187" t="s">
-        <v>105</v>
-      </c>
-      <c r="B187">
-        <v>30000</v>
-      </c>
-      <c r="C187" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A188" t="s">
-        <v>102</v>
-      </c>
-      <c r="B188">
-        <v>30000</v>
-      </c>
-      <c r="C188" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A189" t="s">
-        <v>106</v>
-      </c>
-      <c r="B189">
-        <v>60000</v>
-      </c>
-      <c r="C189" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A190" s="6"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="6"/>
-    </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A191" t="s">
-        <v>74</v>
-      </c>
-      <c r="B191">
-        <v>2000</v>
-      </c>
-      <c r="C191" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A192" t="s">
-        <v>76</v>
-      </c>
-      <c r="B192">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A193" t="s">
-        <v>77</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="195" spans="1:3" ht="15" customHeight="1">
-      <c r="A195" t="s">
-        <v>75</v>
-      </c>
-      <c r="B195">
-        <v>2000</v>
-      </c>
-      <c r="C195" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A196" t="s">
-        <v>78</v>
-      </c>
-      <c r="B196">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A197" t="s">
-        <v>79</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="199" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A199" t="s">
-        <v>149</v>
-      </c>
-      <c r="B199">
-        <v>3000</v>
-      </c>
-      <c r="C199" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="201" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A201" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>509</v>
+      <c r="A201" t="s">
+        <v>57</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A202" s="6"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="6"/>
-    </row>
-    <row r="203" spans="1:3" ht="14" customHeight="1">
+      <c r="A202" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.25" customHeight="1">
       <c r="A203" t="s">
-        <v>121</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="B203" s="5">
+        <v>60</v>
       </c>
       <c r="C203" t="s">
         <v>61</v>
@@ -3598,1225 +3117,540 @@
     <row r="204" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="205" spans="1:3" ht="14.25" customHeight="1">
       <c r="A205" t="s">
-        <v>132</v>
-      </c>
-      <c r="B205">
-        <v>60000</v>
+        <v>134</v>
+      </c>
+      <c r="B205" t="s">
+        <v>171</v>
       </c>
       <c r="C205" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1">
       <c r="A206" t="s">
-        <v>131</v>
-      </c>
-      <c r="B206">
+        <v>135</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" s="8" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A207" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A208" t="s">
+        <v>46</v>
+      </c>
+      <c r="C208" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A209" t="s">
+        <v>47</v>
+      </c>
+      <c r="B209" s="5">
         <v>60000</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C209" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="211" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A211" t="s">
+        <v>137</v>
+      </c>
+      <c r="B211" t="s">
+        <v>171</v>
+      </c>
+      <c r="C211" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A212" t="s">
+        <v>138</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A213" t="s">
+        <v>139</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14" customHeight="1"/>
+    <row r="215" spans="1:3" ht="14" customHeight="1"/>
+    <row r="216" spans="1:3" ht="14" customHeight="1">
+      <c r="A216" t="s">
+        <v>164</v>
+      </c>
+      <c r="B216" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14" customHeight="1">
+      <c r="A217" t="s">
+        <v>167</v>
+      </c>
+      <c r="B217" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14" customHeight="1">
+      <c r="A218" t="s">
+        <v>169</v>
+      </c>
+      <c r="B218" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14" customHeight="1"/>
+    <row r="220" spans="1:3" ht="15" customHeight="1">
+      <c r="A220" t="s">
+        <v>276</v>
+      </c>
+      <c r="B220">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="14" customHeight="1">
+      <c r="A221" t="s">
+        <v>277</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14" customHeight="1">
+      <c r="A222" t="s">
+        <v>278</v>
+      </c>
+      <c r="B222">
+        <v>10</v>
+      </c>
+      <c r="C222" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14" customHeight="1">
+      <c r="A223" t="s">
+        <v>279</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="14" customHeight="1"/>
+    <row r="225" spans="1:3" ht="15" customHeight="1">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A226" t="s">
+        <v>174</v>
+      </c>
+      <c r="B226" s="2">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A227" t="s">
+        <v>175</v>
+      </c>
+      <c r="B227" s="2">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A228" t="s">
+        <v>178</v>
+      </c>
+      <c r="B228" s="2">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="230" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="231" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A231" t="s">
+        <v>259</v>
+      </c>
+      <c r="B231" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A232" t="s">
+        <v>176</v>
+      </c>
+      <c r="B232" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A233" t="s">
+        <v>177</v>
+      </c>
+      <c r="B233" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A234" t="s">
+        <v>179</v>
+      </c>
+      <c r="B234" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A235" t="s">
+        <v>193</v>
+      </c>
+      <c r="B235" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A236" t="s">
+        <v>282</v>
+      </c>
+      <c r="B236" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="238" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A238" t="s">
+        <v>183</v>
+      </c>
+      <c r="B238">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A239" t="s">
+        <v>184</v>
+      </c>
+      <c r="B239" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="241" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="242" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A242" t="s">
+        <v>281</v>
+      </c>
+      <c r="B242">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A243" t="s">
+        <v>186</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14" customHeight="1">
+      <c r="A244" t="s">
+        <v>204</v>
+      </c>
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A207" t="s">
-        <v>133</v>
-      </c>
-      <c r="B207">
-        <v>60000</v>
-      </c>
-      <c r="C207" t="s">
+    <row r="245" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A245" t="s">
+        <v>203</v>
+      </c>
+      <c r="B245">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A208" t="s">
-        <v>167</v>
-      </c>
-      <c r="B208">
+    <row r="246" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A246" t="s">
+        <v>207</v>
+      </c>
+      <c r="B246">
         <v>5</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C246" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="20.5" customHeight="1"/>
-    <row r="210" spans="1:3" ht="20.5" customHeight="1">
-      <c r="A210" t="s">
-        <v>411</v>
-      </c>
-      <c r="B210">
+    <row r="247" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A247" t="s">
+        <v>210</v>
+      </c>
+      <c r="B247">
         <v>5</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C247" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A211" t="s">
-        <v>412</v>
-      </c>
-      <c r="B211">
+    <row r="248" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A248" t="s">
+        <v>213</v>
+      </c>
+      <c r="B248">
         <v>5</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C248" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A212" t="s">
-        <v>415</v>
-      </c>
-      <c r="B212">
+    <row r="249" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A249" t="s">
+        <v>216</v>
+      </c>
+      <c r="B249">
         <v>5</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C249" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A213" t="s">
-        <v>432</v>
-      </c>
-      <c r="B213">
+    <row r="250" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A250" t="s">
+        <v>219</v>
+      </c>
+      <c r="B250">
         <v>5</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C250" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A214" t="s">
-        <v>441</v>
-      </c>
-      <c r="B214">
+    <row r="251" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A251" t="s">
+        <v>222</v>
+      </c>
+      <c r="B251">
         <v>5</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C251" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A215" t="s">
-        <v>448</v>
-      </c>
-      <c r="B215">
+    <row r="252" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A252" t="s">
+        <v>225</v>
+      </c>
+      <c r="B252">
         <v>5</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C252" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A216" t="s">
-        <v>451</v>
-      </c>
-      <c r="B216">
-        <v>5</v>
-      </c>
-      <c r="C216" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A217" t="s">
-        <v>454</v>
-      </c>
-      <c r="B217">
-        <v>5</v>
-      </c>
-      <c r="C217" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A218" t="s">
-        <v>455</v>
-      </c>
-      <c r="B218">
-        <v>5</v>
-      </c>
-      <c r="C218" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A219" t="s">
-        <v>456</v>
-      </c>
-      <c r="B219">
-        <v>5</v>
-      </c>
-      <c r="C219" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A220" t="s">
-        <v>461</v>
-      </c>
-      <c r="B220">
-        <v>5</v>
-      </c>
-      <c r="C220" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A221" t="s">
-        <v>462</v>
-      </c>
-      <c r="B221">
-        <v>5</v>
-      </c>
-      <c r="C221" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A222" t="s">
-        <v>469</v>
-      </c>
-      <c r="B222">
-        <v>5</v>
-      </c>
-      <c r="C222" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A223" t="s">
-        <v>470</v>
-      </c>
-      <c r="B223">
-        <v>5</v>
-      </c>
-      <c r="C223" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A224" t="s">
-        <v>473</v>
-      </c>
-      <c r="B224">
-        <v>5</v>
-      </c>
-      <c r="C224" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A225" t="s">
-        <v>478</v>
-      </c>
-      <c r="B225">
-        <v>5</v>
-      </c>
-      <c r="C225" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="227" spans="1:3" ht="15.5" customHeight="1">
-      <c r="A227" t="s">
-        <v>414</v>
-      </c>
-      <c r="B227" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A228" t="s">
-        <v>413</v>
-      </c>
-      <c r="B228" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="16" customHeight="1">
-      <c r="A229" t="s">
-        <v>416</v>
-      </c>
-      <c r="B229" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A230" t="s">
-        <v>417</v>
-      </c>
-      <c r="B230" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A231" t="s">
-        <v>418</v>
-      </c>
-      <c r="B231" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A232" t="s">
-        <v>419</v>
-      </c>
-      <c r="B232" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A233" t="s">
-        <v>426</v>
-      </c>
-      <c r="B233" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A234" t="s">
-        <v>428</v>
-      </c>
-      <c r="B234" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A235" t="s">
-        <v>430</v>
-      </c>
-      <c r="B235" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A236" t="s">
-        <v>433</v>
-      </c>
-      <c r="B236" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A237" t="s">
-        <v>435</v>
-      </c>
-      <c r="B237" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A238" t="s">
-        <v>437</v>
-      </c>
-      <c r="B238" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A239" t="s">
-        <v>445</v>
-      </c>
-      <c r="B239" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A240" t="s">
-        <v>446</v>
-      </c>
-      <c r="B240" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1">
-      <c r="A241" t="s">
-        <v>447</v>
-      </c>
-      <c r="B241" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A242" t="s">
-        <v>443</v>
-      </c>
-      <c r="B242" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="13" customHeight="1">
-      <c r="A243" t="s">
-        <v>449</v>
-      </c>
-      <c r="B243" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="17" customHeight="1">
-      <c r="A244" t="s">
-        <v>452</v>
-      </c>
-      <c r="B244" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="17" customHeight="1">
-      <c r="A245" t="s">
-        <v>457</v>
-      </c>
-      <c r="B245" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="17" customHeight="1">
-      <c r="A246" t="s">
-        <v>459</v>
-      </c>
-      <c r="B246" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="17" customHeight="1">
-      <c r="A247" t="s">
-        <v>463</v>
-      </c>
-      <c r="B247" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="17" customHeight="1">
-      <c r="A248" t="s">
-        <v>465</v>
-      </c>
-      <c r="B248" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="17" customHeight="1">
-      <c r="A249" t="s">
-        <v>467</v>
-      </c>
-      <c r="B249" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="17" customHeight="1">
-      <c r="A250" t="s">
-        <v>471</v>
-      </c>
-      <c r="B250" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="17" customHeight="1">
-      <c r="A251" t="s">
-        <v>474</v>
-      </c>
-      <c r="B251" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="17" customHeight="1">
-      <c r="A252" t="s">
-        <v>476</v>
-      </c>
-      <c r="B252" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="17" customHeight="1"/>
-    <row r="254" spans="1:2" ht="17" customHeight="1"/>
-    <row r="255" spans="1:2" ht="17" customHeight="1"/>
-    <row r="256" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A257" s="6" t="s">
-        <v>141</v>
+    <row r="253" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="254" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A254" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A255" t="s">
+        <v>201</v>
+      </c>
+      <c r="B255" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A256" t="s">
+        <v>205</v>
+      </c>
+      <c r="B256" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A257" t="s">
+        <v>208</v>
       </c>
       <c r="B257" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="259" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A259" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A260" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A261" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A262" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" s="6" customFormat="1" ht="14.5"/>
-    <row r="264" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A264" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A265" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A266" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B266" s="7">
-        <v>60</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A268" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C268" s="6"/>
-    </row>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A269" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C269" s="6"/>
-    </row>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A270" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B270" s="7">
-        <v>60</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
-    </row>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A272" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A273" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C273" s="6"/>
-    </row>
-    <row r="274" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A274" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="C274" s="6"/>
-    </row>
-    <row r="275" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A275" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B275" s="6"/>
-      <c r="C275" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A276" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B276" s="7">
-        <v>60000</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="278" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A278" t="s">
-        <v>137</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A279" t="s">
-        <v>138</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A280" t="s">
-        <v>139</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="14" customHeight="1"/>
-    <row r="282" spans="1:3" ht="14" customHeight="1"/>
-    <row r="283" spans="1:3" ht="14" customHeight="1">
-      <c r="A283" t="s">
-        <v>164</v>
-      </c>
-      <c r="B283" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="14" customHeight="1">
-      <c r="A284" t="s">
-        <v>168</v>
-      </c>
-      <c r="B284" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="14" customHeight="1">
-      <c r="A285" t="s">
-        <v>170</v>
-      </c>
-      <c r="B285" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="14" customHeight="1"/>
-    <row r="287" spans="1:3" ht="15" customHeight="1">
-      <c r="A287" t="s">
-        <v>494</v>
-      </c>
-      <c r="B287">
-        <v>10</v>
-      </c>
-      <c r="C287" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="14" customHeight="1">
-      <c r="A288" t="s">
-        <v>495</v>
-      </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-      <c r="C288" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="14" customHeight="1">
-      <c r="A289" t="s">
-        <v>496</v>
-      </c>
-      <c r="B289">
-        <v>10</v>
-      </c>
-      <c r="C289" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="14" customHeight="1">
-      <c r="A290" t="s">
-        <v>497</v>
-      </c>
-      <c r="B290">
-        <v>1</v>
-      </c>
-      <c r="C290" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="14" customHeight="1"/>
-    <row r="292" spans="1:3" ht="15" customHeight="1">
-      <c r="B292" s="2"/>
-    </row>
-    <row r="293" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A293" t="s">
-        <v>175</v>
-      </c>
-      <c r="B293" s="2">
-        <v>5</v>
-      </c>
-      <c r="C293" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A294" t="s">
-        <v>176</v>
-      </c>
-      <c r="B294" s="2">
-        <v>5</v>
-      </c>
-      <c r="C294" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A295" t="s">
-        <v>179</v>
-      </c>
-      <c r="B295" s="2">
-        <v>5</v>
-      </c>
-      <c r="C295" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="297" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="298" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A298" t="s">
-        <v>392</v>
-      </c>
-      <c r="B298" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A299" t="s">
-        <v>177</v>
-      </c>
-      <c r="B299" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A300" t="s">
-        <v>178</v>
-      </c>
-      <c r="B300" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A301" t="s">
-        <v>180</v>
-      </c>
-      <c r="B301" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A302" t="s">
-        <v>270</v>
-      </c>
-      <c r="B302" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A303" t="s">
-        <v>500</v>
-      </c>
-      <c r="B303" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="305" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A305" t="s">
-        <v>184</v>
-      </c>
-      <c r="B305">
-        <v>5</v>
-      </c>
-      <c r="C305" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A306" t="s">
-        <v>185</v>
-      </c>
-      <c r="B306" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="308" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="309" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A309" t="s">
-        <v>499</v>
-      </c>
-      <c r="B309">
-        <v>5</v>
-      </c>
-      <c r="C309" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A310" t="s">
-        <v>187</v>
-      </c>
-      <c r="B310">
-        <v>5</v>
-      </c>
-      <c r="C310" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="14" customHeight="1">
-      <c r="A311" t="s">
-        <v>335</v>
-      </c>
-      <c r="B311">
-        <v>5</v>
-      </c>
-      <c r="C311" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A312" t="s">
-        <v>334</v>
-      </c>
-      <c r="B312">
-        <v>5</v>
-      </c>
-      <c r="C312" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A313" t="s">
-        <v>338</v>
-      </c>
-      <c r="B313">
-        <v>5</v>
-      </c>
-      <c r="C313" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A314" t="s">
-        <v>341</v>
-      </c>
-      <c r="B314">
-        <v>5</v>
-      </c>
-      <c r="C314" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A315" t="s">
-        <v>344</v>
-      </c>
-      <c r="B315">
-        <v>5</v>
-      </c>
-      <c r="C315" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A316" t="s">
-        <v>347</v>
-      </c>
-      <c r="B316">
-        <v>5</v>
-      </c>
-      <c r="C316" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A317" t="s">
-        <v>350</v>
-      </c>
-      <c r="B317">
-        <v>5</v>
-      </c>
-      <c r="C317" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A318" t="s">
-        <v>353</v>
-      </c>
-      <c r="B318">
-        <v>5</v>
-      </c>
-      <c r="C318" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A319" t="s">
-        <v>356</v>
-      </c>
-      <c r="B319">
-        <v>5</v>
-      </c>
-      <c r="C319" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="321" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A321" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A322" t="s">
-        <v>332</v>
-      </c>
-      <c r="B322" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A323" t="s">
-        <v>336</v>
-      </c>
-      <c r="B323" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A324" t="s">
-        <v>339</v>
-      </c>
-      <c r="B324" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A325" t="s">
-        <v>342</v>
-      </c>
-      <c r="B325" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A326" t="s">
-        <v>345</v>
-      </c>
-      <c r="B326" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A327" t="s">
-        <v>348</v>
-      </c>
-      <c r="B327" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A328" t="s">
-        <v>351</v>
-      </c>
-      <c r="B328" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="A329" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="A330" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B330" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="B331" s="7"/>
-    </row>
-    <row r="332" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="A332" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="A333" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="A334" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="A335" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" s="6" customFormat="1" ht="14.5">
-      <c r="A336" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A337" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D337" s="6"/>
-    </row>
-    <row r="338" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A338" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D338" s="6"/>
-    </row>
-    <row r="339" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A339" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D339" s="6"/>
-    </row>
-    <row r="340" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A340" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D340" s="6"/>
-    </row>
-    <row r="341" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A341" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D341" s="6"/>
-    </row>
-    <row r="342" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A342" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D342" s="6"/>
-    </row>
-    <row r="343" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A343" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D343" s="6"/>
-    </row>
-    <row r="344" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A344" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D344" s="6"/>
-    </row>
-    <row r="345" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A345" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D345" s="6"/>
-    </row>
-    <row r="346" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A346" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D346" s="6"/>
-    </row>
-    <row r="347" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A347" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D347" s="6"/>
-    </row>
-    <row r="348" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A348" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D348" s="6"/>
-    </row>
-    <row r="349" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A349" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D349" s="6"/>
-    </row>
-    <row r="350" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A350" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D350" s="6"/>
-    </row>
-    <row r="351" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A351" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D351" s="6"/>
-    </row>
-    <row r="352" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A352" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D352" s="6"/>
-    </row>
-    <row r="353" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A353" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D353" s="6"/>
-    </row>
-    <row r="354" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A354" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="B354" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="D354" s="6"/>
-    </row>
-    <row r="355" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A355" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D355" s="6"/>
-    </row>
-    <row r="356" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="357" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="358" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="359" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="360" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="361" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="362" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="363" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="364" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="365" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="366" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="367" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="368" spans="1:4" ht="14.25" customHeight="1"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A258" t="s">
+        <v>211</v>
+      </c>
+      <c r="B258" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A259" t="s">
+        <v>214</v>
+      </c>
+      <c r="B259" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A260" t="s">
+        <v>217</v>
+      </c>
+      <c r="B260" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A261" t="s">
+        <v>220</v>
+      </c>
+      <c r="B261" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="14.5">
+      <c r="A262" t="s">
+        <v>223</v>
+      </c>
+      <c r="B262" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="14.5">
+      <c r="A263" t="s">
+        <v>226</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="14.5">
+      <c r="B264" s="5"/>
+    </row>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
     <row r="369" ht="14.25" customHeight="1"/>
     <row r="370" ht="14.25" customHeight="1"/>
     <row r="371" ht="14.25" customHeight="1"/>
@@ -5590,73 +4424,6 @@
     <row r="1139" ht="14.25" customHeight="1"/>
     <row r="1140" ht="14.25" customHeight="1"/>
     <row r="1141" ht="14.25" customHeight="1"/>
-    <row r="1142" ht="14.25" customHeight="1"/>
-    <row r="1143" ht="14.25" customHeight="1"/>
-    <row r="1144" ht="14.25" customHeight="1"/>
-    <row r="1145" ht="14.25" customHeight="1"/>
-    <row r="1146" ht="14.25" customHeight="1"/>
-    <row r="1147" ht="14.25" customHeight="1"/>
-    <row r="1148" ht="14.25" customHeight="1"/>
-    <row r="1149" ht="14.25" customHeight="1"/>
-    <row r="1150" ht="14.25" customHeight="1"/>
-    <row r="1151" ht="14.25" customHeight="1"/>
-    <row r="1152" ht="14.25" customHeight="1"/>
-    <row r="1153" ht="14.25" customHeight="1"/>
-    <row r="1154" ht="14.25" customHeight="1"/>
-    <row r="1155" ht="14.25" customHeight="1"/>
-    <row r="1156" ht="14.25" customHeight="1"/>
-    <row r="1157" ht="14.25" customHeight="1"/>
-    <row r="1158" ht="14.25" customHeight="1"/>
-    <row r="1159" ht="14.25" customHeight="1"/>
-    <row r="1160" ht="14.25" customHeight="1"/>
-    <row r="1161" ht="14.25" customHeight="1"/>
-    <row r="1162" ht="14.25" customHeight="1"/>
-    <row r="1163" ht="14.25" customHeight="1"/>
-    <row r="1164" ht="14.25" customHeight="1"/>
-    <row r="1165" ht="14.25" customHeight="1"/>
-    <row r="1166" ht="14.25" customHeight="1"/>
-    <row r="1167" ht="14.25" customHeight="1"/>
-    <row r="1168" ht="14.25" customHeight="1"/>
-    <row r="1169" ht="14.25" customHeight="1"/>
-    <row r="1170" ht="14.25" customHeight="1"/>
-    <row r="1171" ht="14.25" customHeight="1"/>
-    <row r="1172" ht="14.25" customHeight="1"/>
-    <row r="1173" ht="14.25" customHeight="1"/>
-    <row r="1174" ht="14.25" customHeight="1"/>
-    <row r="1175" ht="14.25" customHeight="1"/>
-    <row r="1176" ht="14.25" customHeight="1"/>
-    <row r="1177" ht="14.25" customHeight="1"/>
-    <row r="1178" ht="14.25" customHeight="1"/>
-    <row r="1179" ht="14.25" customHeight="1"/>
-    <row r="1180" ht="14.25" customHeight="1"/>
-    <row r="1181" ht="14.25" customHeight="1"/>
-    <row r="1182" ht="14.25" customHeight="1"/>
-    <row r="1183" ht="14.25" customHeight="1"/>
-    <row r="1184" ht="14.25" customHeight="1"/>
-    <row r="1185" ht="14.25" customHeight="1"/>
-    <row r="1186" ht="14.25" customHeight="1"/>
-    <row r="1187" ht="14.25" customHeight="1"/>
-    <row r="1188" ht="14.25" customHeight="1"/>
-    <row r="1189" ht="14.25" customHeight="1"/>
-    <row r="1190" ht="14.25" customHeight="1"/>
-    <row r="1191" ht="14.25" customHeight="1"/>
-    <row r="1192" ht="14.25" customHeight="1"/>
-    <row r="1193" ht="14.25" customHeight="1"/>
-    <row r="1194" ht="14.25" customHeight="1"/>
-    <row r="1195" ht="14.25" customHeight="1"/>
-    <row r="1196" ht="14.25" customHeight="1"/>
-    <row r="1197" ht="14.25" customHeight="1"/>
-    <row r="1198" ht="14.25" customHeight="1"/>
-    <row r="1199" ht="14.25" customHeight="1"/>
-    <row r="1200" ht="14.25" customHeight="1"/>
-    <row r="1201" ht="14.25" customHeight="1"/>
-    <row r="1202" ht="14.25" customHeight="1"/>
-    <row r="1203" ht="14.25" customHeight="1"/>
-    <row r="1204" ht="14.25" customHeight="1"/>
-    <row r="1205" ht="14.25" customHeight="1"/>
-    <row r="1206" ht="14.25" customHeight="1"/>
-    <row r="1207" ht="14.25" customHeight="1"/>
-    <row r="1208" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5668,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5856,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE1CE2-5E73-438B-9016-60698045CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE039CA4-6259-48B1-802C-775055D931CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="346">
   <si>
     <t>Name</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Sheet1</t>
-  </si>
-  <si>
-    <t>ErrMsg_NoData_ApprovalDeclinedorBotUnprocessed</t>
   </si>
   <si>
     <t>https://sandbox.dataparticles.com:4443/OA_HTML/AppsLocalLogin.jsp</t>
@@ -444,9 +441,6 @@
     <t>Success_MailSubject</t>
   </si>
   <si>
-    <t>Success_MailBody</t>
-  </si>
-  <si>
     <t>Error_MailTo</t>
   </si>
   <si>
@@ -529,27 +523,9 @@
     <t>SE_ErrMsg_MaxRetry</t>
   </si>
   <si>
-    <t>Status_InProgress</t>
-  </si>
-  <si>
-    <t>In Progress - Check Concurrent Manager</t>
-  </si>
-  <si>
     <t>Handling security warnings - Success</t>
   </si>
   <si>
-    <t>Status_Confirmed</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>Status_UnConfirmed</t>
-  </si>
-  <si>
-    <t>Unconfirmed</t>
-  </si>
-  <si>
     <t>gmahesh2789@gmail.com; hariharangouri@gmail.com; sunil.melam@gmail.com</t>
   </si>
   <si>
@@ -559,42 +535,6 @@
     <t>Transactions Window Not Displayed</t>
   </si>
   <si>
-    <t>TimeOut_BatchSourcesPanelDisplayed</t>
-  </si>
-  <si>
-    <t>TimeOut_TransactionTypesPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_SourceNotFound</t>
-  </si>
-  <si>
-    <t>BRE_TypeNotFound</t>
-  </si>
-  <si>
-    <t>TimeOut_LegalEntityPanelDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_LegalEntityNotFound</t>
-  </si>
-  <si>
-    <t>Entered 'Source' Not Found In Batch Sources Panel List</t>
-  </si>
-  <si>
-    <t>Entered 'Type' Not Found in Transaction Types Panel List</t>
-  </si>
-  <si>
-    <t>Entered 'Legal Entity' Not Found in Legal Entity Panel List</t>
-  </si>
-  <si>
-    <t>TimeOut_ApprovalLimitErrorDisplayed</t>
-  </si>
-  <si>
-    <t>BRE_IncompleteTransaction</t>
-  </si>
-  <si>
-    <t>Entered Transaction is incomplete</t>
-  </si>
-  <si>
     <t>TimeOut_ValidationFailureDisplayed</t>
   </si>
   <si>
@@ -616,12 +556,6 @@
     <t>ColName_GLAccount</t>
   </si>
   <si>
-    <t>BRE_ShipToNameNotFound</t>
-  </si>
-  <si>
-    <t>Entered Value Not Found in Customers Panel List</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
@@ -814,12 +748,6 @@
     <t>Unique Transaction Item is -</t>
   </si>
   <si>
-    <t>BRE_DuplicatesFound</t>
-  </si>
-  <si>
-    <t>Duplicate Unique Transaction Items Found</t>
-  </si>
-  <si>
     <t>Log_UniqueTransactionItemsCount</t>
   </si>
   <si>
@@ -883,12 +811,6 @@
     <t>TimeOut_GLDateErrorDisplayed</t>
   </si>
   <si>
-    <t>BRE_GLDateErrorDisplayed</t>
-  </si>
-  <si>
-    <t>Entered GL Date is invalid</t>
-  </si>
-  <si>
     <t>Transaction Created Successfully</t>
   </si>
   <si>
@@ -970,15 +892,9 @@
     <t>Fund Distributions Process - User Input Form</t>
   </si>
   <si>
-    <t xml:space="preserve">Attached is the bot generated Fund Distributions Report. </t>
-  </si>
-  <si>
     <t>Fund Distributions - Error Occurred</t>
   </si>
   <si>
-    <t>Fund Distrubutions - Report</t>
-  </si>
-  <si>
     <t>ColName_RequestType</t>
   </si>
   <si>
@@ -1075,9 +991,6 @@
     <t>Log_IncrementIndex</t>
   </si>
   <si>
-    <t>Index Incremented to</t>
-  </si>
-  <si>
     <t>Log_ValidateFundDistributionField</t>
   </si>
   <si>
@@ -1142,6 +1055,24 @@
   </si>
   <si>
     <t>Check Funds Decision Message</t>
+  </si>
+  <si>
+    <t>Fund Distributions - Report</t>
+  </si>
+  <si>
+    <t>Process finished succesfully, please check Mail.</t>
+  </si>
+  <si>
+    <t>Error occurred while running the process, please check mail</t>
+  </si>
+  <si>
+    <t>End_MessageBox_ErrorText</t>
+  </si>
+  <si>
+    <t>End_MessageBox_SuccessText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Incremented to - </t>
   </si>
 </sst>
 </file>
@@ -1174,18 +1105,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1200,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1218,10 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1141"/>
+  <dimension ref="A1:Z1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1592,15 +1513,15 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -1608,7 +1529,7 @@
     </row>
     <row r="5" spans="1:26" ht="14.5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -1617,7 +1538,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1625,7 +1546,7 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1633,19 +1554,19 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
@@ -1678,419 +1599,419 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.5">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.5">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.5">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.5">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.5">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.5">
       <c r="A42" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.5">
       <c r="A43" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.5">
       <c r="A44" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.5">
       <c r="A45" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.5">
       <c r="A46" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.5">
       <c r="A47" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.5">
       <c r="A48" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.5">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.5">
       <c r="A50" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.5"/>
     <row r="52" spans="1:2" ht="14.5">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.5">
       <c r="A53" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.5">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1">
       <c r="A56" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.5">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.5">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.5">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.5">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -2098,218 +2019,218 @@
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.5">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.5">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.5">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.5">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.5">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.5">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.5">
       <c r="A81" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.5">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.5">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.5">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.5">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.5">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.5">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.5">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.5">
       <c r="A93" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.5">
       <c r="A94" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.5">
       <c r="A95" s="2" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.5">
       <c r="A96" s="2" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.5">
       <c r="A97" s="2" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.5">
       <c r="A98" s="2" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.5">
       <c r="A99" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" t="s">
         <v>345</v>
-      </c>
-      <c r="B99" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.5">
       <c r="A100" s="2" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.5">
@@ -2317,66 +2238,66 @@
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1">
       <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" t="s">
         <v>94</v>
-      </c>
-      <c r="B103" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
       <c r="A104" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" t="s">
         <v>89</v>
-      </c>
-      <c r="B104" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
       <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
         <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1">
@@ -2385,37 +2306,37 @@
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B111" s="5">
         <v>2000</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1">
       <c r="A114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B114" s="5">
         <v>3</v>
@@ -2423,89 +2344,89 @@
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1">
       <c r="A115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B115" s="5">
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.5"/>
     <row r="117" spans="1:3" ht="14.25" customHeight="1">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="119" spans="1:3" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1">
       <c r="A120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="122" spans="1:3" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1">
       <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" t="s">
         <v>111</v>
-      </c>
-      <c r="B124" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="127" spans="1:3" ht="14.25" customHeight="1">
       <c r="A127" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1">
       <c r="A128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2513,13 +2434,13 @@
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1">
       <c r="A129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B129">
         <v>40000</v>
       </c>
       <c r="C129" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1">
@@ -2527,35 +2448,35 @@
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1">
       <c r="A131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131">
         <v>30000</v>
       </c>
       <c r="C131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1">
       <c r="A132" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B132">
         <v>30000</v>
       </c>
       <c r="C132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B133">
         <v>60000</v>
       </c>
       <c r="C133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1">
@@ -2563,18 +2484,18 @@
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B135">
         <v>2000</v>
       </c>
       <c r="C135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1">
       <c r="A136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B136">
         <v>10</v>
@@ -2582,30 +2503,30 @@
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1">
       <c r="A137" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="139" spans="1:3" ht="15" customHeight="1">
       <c r="A139" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B139">
         <v>2000</v>
       </c>
       <c r="C139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B140">
         <v>10</v>
@@ -2613,34 +2534,34 @@
     </row>
     <row r="141" spans="1:3" ht="17.5" customHeight="1">
       <c r="A141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="17.5" customHeight="1"/>
     <row r="143" spans="1:3" ht="17.5" customHeight="1">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>3000</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="145" spans="1:3" ht="14.25" customHeight="1">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1">
@@ -2648,929 +2569,649 @@
     </row>
     <row r="147" spans="1:3" ht="14" customHeight="1">
       <c r="A147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="149" spans="1:3" ht="14.25" customHeight="1">
       <c r="A149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B149">
         <v>60000</v>
       </c>
       <c r="C149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150">
         <v>60000</v>
       </c>
       <c r="C150" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1">
       <c r="A151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B151">
         <v>60000</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16" customHeight="1">
       <c r="A152" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="B152">
         <v>100</v>
       </c>
       <c r="C152" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.5" customHeight="1">
       <c r="A153" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B153">
         <v>100</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.5" customHeight="1">
       <c r="A154" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="B154">
         <v>100</v>
       </c>
       <c r="C154" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.5" customHeight="1">
       <c r="A155" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B155">
         <v>100</v>
       </c>
       <c r="C155" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.5" customHeight="1">
       <c r="A156" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="B156">
         <v>100</v>
       </c>
       <c r="C156" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.5" customHeight="1">
       <c r="A157" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="B157">
         <v>100</v>
       </c>
       <c r="C157" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.5" customHeight="1">
       <c r="A158" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="B158">
         <v>100</v>
       </c>
       <c r="C158" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.5" customHeight="1">
       <c r="A159" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.5" customHeight="1">
       <c r="A160" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.5" customHeight="1">
       <c r="A162" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C162" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.5" customHeight="1">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C163" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.5" customHeight="1">
       <c r="A164" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C164" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.5" customHeight="1">
       <c r="A165" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C165" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.5" customHeight="1">
       <c r="A166" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C166" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.5" customHeight="1">
       <c r="A167" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C167" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.5" customHeight="1">
       <c r="A168" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.5" customHeight="1">
       <c r="A169" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B169">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C169" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.5" customHeight="1">
       <c r="A170" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B170">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C170" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.5" customHeight="1"/>
     <row r="172" spans="1:3" ht="14.5" customHeight="1"/>
     <row r="173" spans="1:3" ht="14.5" customHeight="1">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.5" customHeight="1">
       <c r="A174" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.5" customHeight="1">
       <c r="A175" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.5" customHeight="1">
       <c r="A176" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B176" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="14.5" customHeight="1">
       <c r="A177" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B177" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14.5" customHeight="1">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B178" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="14.5" customHeight="1">
       <c r="A179" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B179" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="14.5" customHeight="1">
       <c r="A180" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B180" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="14.5" customHeight="1">
       <c r="A181" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="14.5" customHeight="1">
       <c r="A182" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B182" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.5" customHeight="1">
       <c r="A183" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B183" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="13.5" customHeight="1">
       <c r="A184" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="16" customHeight="1">
       <c r="A185" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B185" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="16" customHeight="1">
       <c r="A186" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B186" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="16" customHeight="1"/>
-    <row r="188" spans="1:2" ht="16" customHeight="1"/>
-    <row r="189" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="190" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A190" t="s">
-        <v>141</v>
-      </c>
-      <c r="B190" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="17.5" customHeight="1"/>
+    <row r="188" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="189" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A189" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="17.5" customHeight="1"/>
+    <row r="191" spans="1:2" ht="14.5">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="192" spans="1:2" ht="14.5">
       <c r="A192" t="s">
         <v>50</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.5">
       <c r="A193" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.5">
       <c r="A194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="14.5">
-      <c r="A195" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.5"/>
+    <row r="196" spans="1:3" ht="14.5">
+      <c r="A196" t="s">
         <v>56</v>
       </c>
-      <c r="B195" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="14.5"/>
+      <c r="B196" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="197" spans="1:3" ht="14.5">
       <c r="A197" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.5">
       <c r="A198" t="s">
         <v>59</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="14.5">
-      <c r="A199" t="s">
+      <c r="B198" s="5">
         <v>60</v>
       </c>
-      <c r="B199" s="5">
+      <c r="C198" t="s">
         <v>60</v>
       </c>
-      <c r="C199" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="199" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="200" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A200" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1">
       <c r="A201" t="s">
-        <v>57</v>
-      </c>
-      <c r="B201" s="5" t="s">
         <v>58</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1">
       <c r="A202" t="s">
         <v>59</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A203" t="s">
+      <c r="B202" s="5">
         <v>60</v>
       </c>
-      <c r="B203" s="5">
+      <c r="C202" t="s">
         <v>60</v>
       </c>
-      <c r="C203" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="203" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="204" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A204" t="s">
+        <v>133</v>
+      </c>
+      <c r="B204" t="s">
+        <v>163</v>
+      </c>
+      <c r="C204" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1">
       <c r="A205" t="s">
         <v>134</v>
       </c>
-      <c r="B205" t="s">
-        <v>171</v>
-      </c>
-      <c r="C205" t="s">
-        <v>45</v>
+      <c r="B205" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1">
       <c r="A206" t="s">
-        <v>135</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A207" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A208" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A207" t="s">
         <v>46</v>
       </c>
-      <c r="C208" t="s">
-        <v>45</v>
-      </c>
-    </row>
+      <c r="B207" s="5">
+        <v>60000</v>
+      </c>
+      <c r="C207" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="209" spans="1:3" ht="14.25" customHeight="1">
       <c r="A209" t="s">
-        <v>47</v>
-      </c>
-      <c r="B209" s="5">
-        <v>60000</v>
+        <v>135</v>
+      </c>
+      <c r="B209" t="s">
+        <v>163</v>
       </c>
       <c r="C209" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A210" t="s">
+        <v>136</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1">
       <c r="A211" t="s">
         <v>137</v>
       </c>
-      <c r="B211" t="s">
-        <v>171</v>
-      </c>
-      <c r="C211" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A212" t="s">
+      <c r="B211" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B212" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1">
+    </row>
+    <row r="212" spans="1:3" ht="14" customHeight="1"/>
+    <row r="213" spans="1:3" ht="15" customHeight="1">
       <c r="A213" t="s">
-        <v>139</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="14" customHeight="1"/>
-    <row r="215" spans="1:3" ht="14" customHeight="1"/>
+        <v>252</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14" customHeight="1">
+      <c r="A214" t="s">
+        <v>253</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14" customHeight="1">
+      <c r="A215" t="s">
+        <v>254</v>
+      </c>
+      <c r="B215">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="216" spans="1:3" ht="14" customHeight="1">
       <c r="A216" t="s">
-        <v>164</v>
-      </c>
-      <c r="B216" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="14" customHeight="1">
-      <c r="A217" t="s">
-        <v>167</v>
-      </c>
-      <c r="B217" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="14" customHeight="1">
+        <v>255</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14" customHeight="1"/>
+    <row r="218" spans="1:3" ht="14.25" customHeight="1">
       <c r="A218" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="14" customHeight="1"/>
-    <row r="220" spans="1:3" ht="15" customHeight="1">
-      <c r="A220" t="s">
-        <v>276</v>
-      </c>
-      <c r="B220">
-        <v>10</v>
-      </c>
-      <c r="C220" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="14" customHeight="1">
-      <c r="A221" t="s">
-        <v>277</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="14" customHeight="1">
-      <c r="A222" t="s">
-        <v>278</v>
-      </c>
-      <c r="B222">
-        <v>10</v>
-      </c>
-      <c r="C222" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="14" customHeight="1">
-      <c r="A223" t="s">
-        <v>279</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="14" customHeight="1"/>
-    <row r="225" spans="1:3" ht="15" customHeight="1">
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A226" t="s">
-        <v>174</v>
-      </c>
-      <c r="B226" s="2">
-        <v>5</v>
-      </c>
-      <c r="C226" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A227" t="s">
-        <v>175</v>
-      </c>
-      <c r="B227" s="2">
-        <v>5</v>
-      </c>
-      <c r="C227" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A228" t="s">
-        <v>178</v>
-      </c>
-      <c r="B228" s="2">
-        <v>5</v>
-      </c>
-      <c r="C228" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A231" t="s">
-        <v>259</v>
-      </c>
-      <c r="B231" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A232" t="s">
-        <v>176</v>
-      </c>
-      <c r="B232" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A233" t="s">
-        <v>177</v>
-      </c>
-      <c r="B233" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A234" t="s">
-        <v>179</v>
-      </c>
-      <c r="B234" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A235" t="s">
-        <v>193</v>
-      </c>
-      <c r="B235" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A236" t="s">
-        <v>282</v>
-      </c>
-      <c r="B236" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A238" t="s">
-        <v>183</v>
-      </c>
-      <c r="B238">
-        <v>5</v>
-      </c>
-      <c r="C238" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A239" t="s">
-        <v>184</v>
-      </c>
-      <c r="B239" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A242" t="s">
-        <v>281</v>
-      </c>
-      <c r="B242">
-        <v>5</v>
-      </c>
-      <c r="C242" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A243" t="s">
-        <v>186</v>
-      </c>
-      <c r="B243">
-        <v>5</v>
-      </c>
-      <c r="C243" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="14" customHeight="1">
-      <c r="A244" t="s">
-        <v>204</v>
-      </c>
-      <c r="B244">
-        <v>5</v>
-      </c>
-      <c r="C244" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A245" t="s">
-        <v>203</v>
-      </c>
-      <c r="B245">
-        <v>5</v>
-      </c>
-      <c r="C245" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A246" t="s">
-        <v>207</v>
-      </c>
-      <c r="B246">
-        <v>5</v>
-      </c>
-      <c r="C246" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A247" t="s">
-        <v>210</v>
-      </c>
-      <c r="B247">
-        <v>5</v>
-      </c>
-      <c r="C247" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A248" t="s">
-        <v>213</v>
-      </c>
-      <c r="B248">
-        <v>5</v>
-      </c>
-      <c r="C248" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A249" t="s">
-        <v>216</v>
-      </c>
-      <c r="B249">
-        <v>5</v>
-      </c>
-      <c r="C249" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A250" t="s">
-        <v>219</v>
-      </c>
-      <c r="B250">
-        <v>5</v>
-      </c>
-      <c r="C250" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A251" t="s">
-        <v>222</v>
-      </c>
-      <c r="B251">
-        <v>5</v>
-      </c>
-      <c r="C251" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A252" t="s">
-        <v>225</v>
-      </c>
-      <c r="B252">
-        <v>5</v>
-      </c>
-      <c r="C252" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A254" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A255" t="s">
-        <v>201</v>
-      </c>
-      <c r="B255" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A256" t="s">
-        <v>205</v>
-      </c>
-      <c r="B256" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A257" t="s">
-        <v>208</v>
-      </c>
-      <c r="B257" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A258" t="s">
-        <v>211</v>
-      </c>
-      <c r="B258" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A259" t="s">
-        <v>214</v>
-      </c>
-      <c r="B259" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A260" t="s">
-        <v>217</v>
-      </c>
-      <c r="B260" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A261" t="s">
-        <v>220</v>
-      </c>
-      <c r="B261" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="14.5">
-      <c r="A262" t="s">
-        <v>223</v>
-      </c>
-      <c r="B262" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="14.5">
-      <c r="A263" t="s">
-        <v>226</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="14.5">
-      <c r="B264" s="5"/>
-    </row>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A219" t="s">
+        <v>343</v>
+      </c>
+      <c r="B219" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="221" spans="1:3" ht="14" customHeight="1"/>
+    <row r="222" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="223" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="224" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="225" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="226" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="227" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="228" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="229" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="230" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="231" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="232" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="233" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="234" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="235" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="236" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="237" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="238" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="239" spans="2:2" ht="14.5"/>
+    <row r="240" spans="2:2" ht="14.5">
+      <c r="B240" s="5"/>
+    </row>
+    <row r="241" spans="2:2" ht="14.5">
+      <c r="B241" s="5"/>
+    </row>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
     <row r="289" ht="14.25" customHeight="1"/>
     <row r="290" ht="14.25" customHeight="1"/>
     <row r="291" ht="14.25" customHeight="1"/>
@@ -4401,29 +4042,6 @@
     <row r="1116" ht="14.25" customHeight="1"/>
     <row r="1117" ht="14.25" customHeight="1"/>
     <row r="1118" ht="14.25" customHeight="1"/>
-    <row r="1119" ht="14.25" customHeight="1"/>
-    <row r="1120" ht="14.25" customHeight="1"/>
-    <row r="1121" ht="14.25" customHeight="1"/>
-    <row r="1122" ht="14.25" customHeight="1"/>
-    <row r="1123" ht="14.25" customHeight="1"/>
-    <row r="1124" ht="14.25" customHeight="1"/>
-    <row r="1125" ht="14.25" customHeight="1"/>
-    <row r="1126" ht="14.25" customHeight="1"/>
-    <row r="1127" ht="14.25" customHeight="1"/>
-    <row r="1128" ht="14.25" customHeight="1"/>
-    <row r="1129" ht="14.25" customHeight="1"/>
-    <row r="1130" ht="14.25" customHeight="1"/>
-    <row r="1131" ht="14.25" customHeight="1"/>
-    <row r="1132" ht="14.25" customHeight="1"/>
-    <row r="1133" ht="14.25" customHeight="1"/>
-    <row r="1134" ht="14.25" customHeight="1"/>
-    <row r="1135" ht="14.25" customHeight="1"/>
-    <row r="1136" ht="14.25" customHeight="1"/>
-    <row r="1137" ht="14.25" customHeight="1"/>
-    <row r="1138" ht="14.25" customHeight="1"/>
-    <row r="1139" ht="14.25" customHeight="1"/>
-    <row r="1140" ht="14.25" customHeight="1"/>
-    <row r="1141" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4435,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4497,7 +4115,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -4623,15 +4241,11 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,39 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testb\Documents\UiPath\FederalBotFactory\FundDistributions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE039CA4-6259-48B1-802C-775055D931CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DB0557-7835-4EA6-BF60-9F416434049C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="345">
   <si>
     <t>Name</t>
   </si>
@@ -421,9 +410,6 @@
   </si>
   <si>
     <t>Failed - System Exception</t>
-  </si>
-  <si>
-    <t>Output</t>
   </si>
   <si>
     <t>TimeOut_HandleSecurityWarnings_Continue</t>
@@ -1450,7 +1436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1460,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1516,7 +1502,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -1566,7 +1552,7 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
@@ -1607,347 +1593,347 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.5">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.5">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.5">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.5">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.5">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
         <v>206</v>
-      </c>
-      <c r="B24" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.5">
       <c r="A42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" t="s">
         <v>286</v>
-      </c>
-      <c r="B42" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.5">
       <c r="A43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" t="s">
         <v>324</v>
-      </c>
-      <c r="B43" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.5">
       <c r="A44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" t="s">
         <v>326</v>
-      </c>
-      <c r="B44" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.5">
       <c r="A45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B45" t="s">
         <v>328</v>
-      </c>
-      <c r="B45" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.5">
       <c r="A46" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" t="s">
         <v>330</v>
-      </c>
-      <c r="B46" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.5">
       <c r="A47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" t="s">
         <v>332</v>
-      </c>
-      <c r="B47" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.5">
       <c r="A48" t="s">
+        <v>333</v>
+      </c>
+      <c r="B48" t="s">
         <v>334</v>
-      </c>
-      <c r="B48" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.5">
       <c r="A49" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" t="s">
         <v>336</v>
-      </c>
-      <c r="B49" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.5">
       <c r="A50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" t="s">
         <v>338</v>
-      </c>
-      <c r="B50" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.5"/>
     <row r="52" spans="1:2" ht="14.5">
       <c r="A52" t="s">
+        <v>287</v>
+      </c>
+      <c r="B52" t="s">
         <v>288</v>
-      </c>
-      <c r="B52" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.5">
       <c r="A53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s">
         <v>290</v>
-      </c>
-      <c r="B53" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.5">
       <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" t="s">
         <v>175</v>
-      </c>
-      <c r="B55" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.5">
       <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
         <v>151</v>
-      </c>
-      <c r="B57" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.5">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.5">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.5">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1973,7 +1959,7 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
@@ -1981,13 +1967,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
         <v>128</v>
@@ -2006,7 +1992,7 @@
         <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1">
@@ -2027,87 +2013,87 @@
     </row>
     <row r="75" spans="1:2" ht="14.5">
       <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
         <v>149</v>
-      </c>
-      <c r="B75" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.5">
       <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
         <v>159</v>
-      </c>
-      <c r="B76" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.5">
       <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
         <v>231</v>
-      </c>
-      <c r="B77" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.5">
       <c r="A78" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" t="s">
         <v>235</v>
-      </c>
-      <c r="B78" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.5">
       <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="s">
         <v>233</v>
-      </c>
-      <c r="B79" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.5">
       <c r="A80" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
         <v>237</v>
-      </c>
-      <c r="B80" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.5">
       <c r="A81" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" t="s">
         <v>239</v>
-      </c>
-      <c r="B81" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.5">
       <c r="A82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
         <v>241</v>
-      </c>
-      <c r="B82" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.5">
       <c r="A83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" t="s">
         <v>141</v>
-      </c>
-      <c r="B83" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.5">
       <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" t="s">
         <v>143</v>
-      </c>
-      <c r="B84" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.5">
       <c r="A85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
@@ -2115,26 +2101,26 @@
     </row>
     <row r="86" spans="1:2" ht="14.5">
       <c r="A86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" t="s">
         <v>145</v>
-      </c>
-      <c r="B86" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.5">
       <c r="A87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
         <v>259</v>
-      </c>
-      <c r="B87" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.5">
       <c r="A88" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" t="s">
         <v>261</v>
-      </c>
-      <c r="B88" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" customHeight="1">
@@ -2150,87 +2136,87 @@
         <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.5">
       <c r="A93" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" t="s">
         <v>246</v>
-      </c>
-      <c r="B93" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.5">
       <c r="A94" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.5">
       <c r="A95" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B95" t="s">
         <v>309</v>
-      </c>
-      <c r="B95" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.5">
       <c r="A96" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.5">
       <c r="A97" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B97" t="s">
         <v>313</v>
-      </c>
-      <c r="B97" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.5">
       <c r="A98" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.5">
       <c r="A99" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.5">
       <c r="A100" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.5">
@@ -2278,7 +2264,7 @@
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>111</v>
@@ -2286,18 +2272,18 @@
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1">
       <c r="A108" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" t="s">
         <v>164</v>
-      </c>
-      <c r="B108" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
       <c r="A109" t="s">
+        <v>262</v>
+      </c>
+      <c r="B109" t="s">
         <v>263</v>
-      </c>
-      <c r="B109" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1">
@@ -2415,7 +2401,7 @@
     <row r="126" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="127" spans="1:3" ht="14.25" customHeight="1">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -2546,7 +2532,7 @@
     <row r="142" spans="1:3" ht="17.5" customHeight="1"/>
     <row r="143" spans="1:3" ht="17.5" customHeight="1">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143">
         <v>3000</v>
@@ -2561,7 +2547,7 @@
         <v>119</v>
       </c>
       <c r="B145" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1">
@@ -2581,7 +2567,7 @@
     <row r="148" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="149" spans="1:3" ht="14.25" customHeight="1">
       <c r="A149" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B149">
         <v>60000</v>
@@ -2592,7 +2578,7 @@
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B150">
         <v>60000</v>
@@ -2603,7 +2589,7 @@
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B151">
         <v>60000</v>
@@ -2614,7 +2600,7 @@
     </row>
     <row r="152" spans="1:3" ht="16" customHeight="1">
       <c r="A152" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B152">
         <v>100</v>
@@ -2625,7 +2611,7 @@
     </row>
     <row r="153" spans="1:3" ht="14.5" customHeight="1">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B153">
         <v>100</v>
@@ -2636,7 +2622,7 @@
     </row>
     <row r="154" spans="1:3" ht="14.5" customHeight="1">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B154">
         <v>100</v>
@@ -2647,7 +2633,7 @@
     </row>
     <row r="155" spans="1:3" ht="14.5" customHeight="1">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B155">
         <v>100</v>
@@ -2658,7 +2644,7 @@
     </row>
     <row r="156" spans="1:3" ht="14.5" customHeight="1">
       <c r="A156" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B156">
         <v>100</v>
@@ -2669,7 +2655,7 @@
     </row>
     <row r="157" spans="1:3" ht="14.5" customHeight="1">
       <c r="A157" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B157">
         <v>100</v>
@@ -2680,7 +2666,7 @@
     </row>
     <row r="158" spans="1:3" ht="14.5" customHeight="1">
       <c r="A158" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B158">
         <v>100</v>
@@ -2691,7 +2677,7 @@
     </row>
     <row r="159" spans="1:3" ht="14.5" customHeight="1">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B159">
         <v>100</v>
@@ -2702,7 +2688,7 @@
     </row>
     <row r="160" spans="1:3" ht="14.5" customHeight="1">
       <c r="A160" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B160">
         <v>100</v>
@@ -2713,7 +2699,7 @@
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <v>100</v>
@@ -2724,7 +2710,7 @@
     </row>
     <row r="162" spans="1:3" ht="14.5" customHeight="1">
       <c r="A162" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B162">
         <v>100</v>
@@ -2735,7 +2721,7 @@
     </row>
     <row r="163" spans="1:3" ht="14.5" customHeight="1">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B163">
         <v>100</v>
@@ -2746,7 +2732,7 @@
     </row>
     <row r="164" spans="1:3" ht="14.5" customHeight="1">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B164">
         <v>100</v>
@@ -2757,7 +2743,7 @@
     </row>
     <row r="165" spans="1:3" ht="14.5" customHeight="1">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>100</v>
@@ -2768,7 +2754,7 @@
     </row>
     <row r="166" spans="1:3" ht="14.5" customHeight="1">
       <c r="A166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B166">
         <v>100</v>
@@ -2779,7 +2765,7 @@
     </row>
     <row r="167" spans="1:3" ht="14.5" customHeight="1">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B167">
         <v>100</v>
@@ -2790,7 +2776,7 @@
     </row>
     <row r="168" spans="1:3" ht="14.5" customHeight="1">
       <c r="A168" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B168">
         <v>100</v>
@@ -2801,7 +2787,7 @@
     </row>
     <row r="169" spans="1:3" ht="14.5" customHeight="1">
       <c r="A169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B169">
         <v>100</v>
@@ -2812,7 +2798,7 @@
     </row>
     <row r="170" spans="1:3" ht="14.5" customHeight="1">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B170">
         <v>100</v>
@@ -2825,124 +2811,124 @@
     <row r="172" spans="1:3" ht="14.5" customHeight="1"/>
     <row r="173" spans="1:3" ht="14.5" customHeight="1">
       <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="s">
         <v>179</v>
-      </c>
-      <c r="B173" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.5" customHeight="1">
       <c r="A174" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" t="s">
         <v>183</v>
-      </c>
-      <c r="B174" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.5" customHeight="1">
       <c r="A175" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" t="s">
         <v>186</v>
-      </c>
-      <c r="B175" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.5" customHeight="1">
       <c r="A176" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" t="s">
         <v>189</v>
-      </c>
-      <c r="B176" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="14.5" customHeight="1">
       <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177" t="s">
         <v>192</v>
-      </c>
-      <c r="B177" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14.5" customHeight="1">
       <c r="A178" t="s">
+        <v>194</v>
+      </c>
+      <c r="B178" t="s">
         <v>195</v>
-      </c>
-      <c r="B178" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="14.5" customHeight="1">
       <c r="A179" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179" t="s">
         <v>198</v>
-      </c>
-      <c r="B179" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="14.5" customHeight="1">
       <c r="A180" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" t="s">
         <v>201</v>
-      </c>
-      <c r="B180" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="14.5" customHeight="1">
       <c r="A181" t="s">
+        <v>203</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="14.5" customHeight="1">
       <c r="A182" t="s">
+        <v>298</v>
+      </c>
+      <c r="B182" t="s">
         <v>299</v>
-      </c>
-      <c r="B182" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.5" customHeight="1">
       <c r="A183" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B183" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="13.5" customHeight="1">
       <c r="A184" t="s">
+        <v>292</v>
+      </c>
+      <c r="B184" t="s">
         <v>293</v>
-      </c>
-      <c r="B184" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="16" customHeight="1">
       <c r="A185" t="s">
+        <v>295</v>
+      </c>
+      <c r="B185" t="s">
         <v>296</v>
-      </c>
-      <c r="B185" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="16" customHeight="1">
       <c r="A186" t="s">
+        <v>320</v>
+      </c>
+      <c r="B186" t="s">
         <v>321</v>
-      </c>
-      <c r="B186" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="16" customHeight="1"/>
     <row r="188" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="189" spans="1:2" ht="14.25" customHeight="1">
       <c r="A189" t="s">
+        <v>138</v>
+      </c>
+      <c r="B189" t="s">
         <v>139</v>
-      </c>
-      <c r="B189" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="17.5" customHeight="1"/>
@@ -3037,10 +3023,10 @@
     <row r="203" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="204" spans="1:3" ht="14.25" customHeight="1">
       <c r="A204" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B204" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C204" t="s">
         <v>44</v>
@@ -3048,10 +3034,10 @@
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1">
       <c r="A205" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1">
@@ -3076,10 +3062,10 @@
     <row r="208" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="209" spans="1:3" ht="14.25" customHeight="1">
       <c r="A209" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C209" t="s">
         <v>44</v>
@@ -3087,35 +3073,35 @@
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1">
       <c r="A210" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1">
       <c r="A211" t="s">
+        <v>136</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14" customHeight="1"/>
     <row r="213" spans="1:3" ht="15" customHeight="1">
       <c r="A213" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B213">
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14" customHeight="1">
       <c r="A214" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -3126,18 +3112,18 @@
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1">
       <c r="A215" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B215">
         <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14" customHeight="1">
       <c r="A216" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -3149,18 +3135,18 @@
     <row r="217" spans="1:3" ht="14" customHeight="1"/>
     <row r="218" spans="1:3" ht="14.25" customHeight="1">
       <c r="A218" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B218" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1">
       <c r="A219" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B219" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1"/>
@@ -4053,7 +4039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4241,7 +4227,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
